--- a/dist/document/dest/2020/10/doctors/_summary.xlsx
+++ b/dist/document/dest/2020/10/doctors/_summary.xlsx
@@ -410,16 +410,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B2" t="str">
-        <v>Nguyễn Văn Hiền</v>
+        <v>Lê Thị Thuý An</v>
       </c>
       <c r="C2" s="1">
-        <v>490282</v>
+        <v>22477</v>
       </c>
       <c r="D2" s="1">
-        <v>4556844710</v>
+        <v>NaN</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -427,16 +427,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B3" t="str">
-        <v>Phạm Thị Thu Thuỷ</v>
+        <v>Nguyễn Thị Hồng Anh</v>
       </c>
       <c r="C3" s="1">
-        <v>274281</v>
+        <v>132497</v>
       </c>
       <c r="D3" s="1">
-        <v>3399540985</v>
+        <v>NaN</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -444,707 +444,707 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>20</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Huỳnh Trác Luân</v>
+        <v>Bán lẻ</v>
       </c>
       <c r="C4" s="1">
-        <v>416432</v>
+        <v>21522</v>
       </c>
       <c r="D4" s="1">
-        <v>3016537440</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn Linh Thoại</v>
+        <v>Nguyễn An</v>
       </c>
       <c r="C5" s="1">
-        <v>311913</v>
+        <v>12762</v>
       </c>
       <c r="D5" s="1">
-        <v>2407787810</v>
+        <v>NaN</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B6" t="str">
-        <v>Lý Thanh Lãm</v>
+        <v>Nguyễn Thy Anh</v>
       </c>
       <c r="C6" s="1">
-        <v>273848</v>
+        <v>65320</v>
       </c>
       <c r="D6" s="1">
-        <v>2113347141</v>
+        <v>NaN</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="B7" t="str">
-        <v>Phù Dung Thái Biểu</v>
+        <v>Phạm Thế Anh</v>
       </c>
       <c r="C7" s="1">
-        <v>154286</v>
+        <v>13805</v>
       </c>
       <c r="D7" s="1">
-        <v>2005935955</v>
+        <v>NaN</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>56</v>
+        <v>ttla</v>
       </c>
       <c r="B8" t="str">
-        <v>Hồ Tấn Đạt</v>
+        <v>Trần Thị Lan Anh</v>
       </c>
       <c r="C8" s="1">
-        <v>153995</v>
+        <v>323</v>
       </c>
       <c r="D8" s="1">
-        <v>1963315935</v>
+        <v>NaN</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B9" t="str">
-        <v>Nguyễn Tuấn Vũ</v>
+        <v>Phù Dung Thái Biểu</v>
       </c>
       <c r="C9" s="1">
-        <v>273186</v>
+        <v>154286</v>
       </c>
       <c r="D9" s="1">
-        <v>1808743285</v>
+        <v>NaN</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>146</v>
+        <v>ptvb</v>
       </c>
       <c r="B10" t="str">
-        <v>Lê Đình Tín</v>
+        <v>Phan Thanh Việt Bình</v>
       </c>
       <c r="C10" s="1">
-        <v>243452</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1">
-        <v>1597108045</v>
+        <v>NaN</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="B11" t="str">
-        <v>Nguyễn Đình Linh</v>
+        <v>Lương Thanh Bửu</v>
       </c>
       <c r="C11" s="1">
-        <v>240964</v>
+        <v>172404</v>
       </c>
       <c r="D11" s="1">
-        <v>1551032655</v>
+        <v>NaN</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="B12" t="str">
-        <v>Lương Thanh Bửu</v>
+        <v>Nguyễn Kỳ Chân</v>
       </c>
       <c r="C12" s="1">
-        <v>172404</v>
+        <v>30957</v>
       </c>
       <c r="D12" s="1">
-        <v>1383184155</v>
+        <v>NaN</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B13" t="str">
-        <v>Trần Văn Nam</v>
+        <v>Phạm Công Chánh</v>
       </c>
       <c r="C13" s="1">
-        <v>187482</v>
+        <v>73241</v>
       </c>
       <c r="D13" s="1">
-        <v>1371984130</v>
+        <v>NaN</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="B14" t="str">
-        <v>Phan Hữu Bội Hoàn</v>
+        <v>Phan Nguyên Thiên Châu</v>
       </c>
       <c r="C14" s="1">
-        <v>110862</v>
+        <v>13184</v>
       </c>
       <c r="D14" s="1">
-        <v>1356466455</v>
+        <v>NaN</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>41</v>
+        <v>ltc</v>
       </c>
       <c r="B15" t="str">
-        <v>Phạm Công Chánh</v>
+        <v>Lê Thanh Chương</v>
       </c>
       <c r="C15" s="1">
-        <v>73241</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
-        <v>1196065885</v>
+        <v>NaN</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="B16" t="str">
-        <v>Nguyễn văn Hưng</v>
+        <v>Nguyễn Tuấn Cường</v>
       </c>
       <c r="C16" s="1">
-        <v>187588</v>
+        <v>14537</v>
       </c>
       <c r="D16" s="1">
-        <v>974319778</v>
+        <v>NaN</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>31</v>
+        <v>ttc</v>
       </c>
       <c r="B17" t="str">
-        <v>Phùng Trọng Kiên</v>
+        <v>Trần Thanh Cường</v>
       </c>
       <c r="C17" s="1">
-        <v>159191</v>
+        <v>606</v>
       </c>
       <c r="D17" s="1">
-        <v>964741309</v>
+        <v>NaN</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" t="str">
-        <v>Nguyễn Ngọc Khôi</v>
+        <v>Nguyễn Thành Đăng</v>
       </c>
       <c r="C18" s="1">
-        <v>118319</v>
+        <v>19547</v>
       </c>
       <c r="D18" s="1">
-        <v>959057122</v>
+        <v>NaN</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B19" t="str">
-        <v>Nguyễn Thị Ánh Hồng</v>
+        <v>Đoàn Thị Ngọc Đào</v>
       </c>
       <c r="C19" s="1">
-        <v>157548</v>
+        <v>45576</v>
       </c>
       <c r="D19" s="1">
-        <v>924068930</v>
+        <v>NaN</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B20" t="str">
-        <v>Nguyễn Thị Hồng Anh</v>
+        <v>Trần Thị Diễm</v>
       </c>
       <c r="C20" s="1">
-        <v>132497</v>
+        <v>88793</v>
       </c>
       <c r="D20" s="1">
-        <v>874728280</v>
+        <v>NaN</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>77</v>
+        <v>nlđ</v>
       </c>
       <c r="B21" t="str">
-        <v>Bùi Kim Dung</v>
+        <v>Nguyễn Lan Đình</v>
       </c>
       <c r="C21" s="1">
-        <v>128147</v>
+        <v>2453</v>
       </c>
       <c r="D21" s="1">
-        <v>850386659</v>
+        <v>NaN</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B22" t="str">
-        <v>Lý Văn Phái</v>
+        <v>Trần Chí Đủ</v>
       </c>
       <c r="C22" s="1">
-        <v>125271</v>
+        <v>20354</v>
       </c>
       <c r="D22" s="1">
-        <v>823987648</v>
+        <v>NaN</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23" t="str">
-        <v>Trương Công Thành</v>
+        <v>Hồ Tấn Đạt</v>
       </c>
       <c r="C23" s="1">
-        <v>114386</v>
+        <v>153995</v>
       </c>
       <c r="D23" s="1">
-        <v>817266214</v>
+        <v>NaN</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>80</v>
+        <v>btkd</v>
       </c>
       <c r="B24" t="str">
-        <v>Võ Trọng Thịnh</v>
+        <v>Bùi Thị Kiều Diễm</v>
       </c>
       <c r="C24" s="1">
-        <v>141406</v>
+        <v>210</v>
       </c>
       <c r="D24" s="1">
-        <v>813434972</v>
+        <v>NaN</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B25" t="str">
-        <v>Nguyễn Đăng Sảng</v>
+        <v>Huỳnh Hoàng Điệp</v>
       </c>
       <c r="C25" s="1">
-        <v>103873</v>
+        <v>29414</v>
       </c>
       <c r="D25" s="1">
-        <v>724898100</v>
+        <v>NaN</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B26" t="str">
-        <v>Bùi Bỉnh Huân</v>
+        <v>Huỳnh Đức Thục Đoan</v>
       </c>
       <c r="C26" s="1">
-        <v>101679</v>
+        <v>34398</v>
       </c>
       <c r="D26" s="1">
-        <v>692677306</v>
+        <v>NaN</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B27" t="str">
-        <v>Trần Thị Tố Hoa</v>
+        <v>Ngô Minh Đức</v>
       </c>
       <c r="C27" s="1">
-        <v>108226</v>
+        <v>86979</v>
       </c>
       <c r="D27" s="1">
-        <v>675458275</v>
+        <v>NaN</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="B28" t="str">
-        <v>Trần Thị Diễm</v>
+        <v>Bùi Kim Dung</v>
       </c>
       <c r="C28" s="1">
-        <v>88793</v>
+        <v>128147</v>
       </c>
       <c r="D28" s="1">
-        <v>663932250</v>
+        <v>NaN</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>Đặng Bữu Thất</v>
+        <v>Ngô Thị Lệ Dung</v>
       </c>
       <c r="C29" s="1">
-        <v>79600</v>
+        <v>21868</v>
       </c>
       <c r="D29" s="1">
-        <v>640348605</v>
+        <v>NaN</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B30" t="str">
-        <v>Trương Hoàng Anh Thư</v>
+        <v>Nguyễn Tấn Dũng</v>
       </c>
       <c r="C30" s="1">
-        <v>88234</v>
+        <v>34569</v>
       </c>
       <c r="D30" s="1">
-        <v>612435552</v>
+        <v>NaN</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="B31" t="str">
-        <v>Bùi Thị Vân Hương</v>
+        <v>Trần Minh Đúng</v>
       </c>
       <c r="C31" s="1">
-        <v>83674</v>
+        <v>4114</v>
       </c>
       <c r="D31" s="1">
-        <v>556210374</v>
+        <v>NaN</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="B32" t="str">
-        <v>Dương Xuân Tùng</v>
+        <v>Bùi Như Giang</v>
       </c>
       <c r="C32" s="1">
-        <v>50087</v>
+        <v>306</v>
       </c>
       <c r="D32" s="1">
-        <v>552025088</v>
+        <v>NaN</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="B33" t="str">
-        <v>Phạm Thiện Thông</v>
+        <v>Đỗ Thu Hằng</v>
       </c>
       <c r="C33" s="1">
-        <v>89779</v>
+        <v>5753</v>
       </c>
       <c r="D33" s="1">
-        <v>526472852</v>
+        <v>NaN</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>35</v>
+        <v>nth</v>
       </c>
       <c r="B34" t="str">
-        <v>Lư Hoàng Vũ</v>
+        <v>Nguyễn Thị Hậu</v>
       </c>
       <c r="C34" s="1">
-        <v>74003</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1">
-        <v>510462900</v>
+        <v>NaN</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>87</v>
+        <v>bđh</v>
       </c>
       <c r="B35" t="str">
-        <v>Lê Trọng Quý</v>
+        <v>Bùi Đức Hiền</v>
       </c>
       <c r="C35" s="1">
-        <v>58264</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1">
-        <v>495083465</v>
+        <v>NaN</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B36" t="str">
-        <v>Ngô Minh Đức</v>
+        <v>Nguyễn Văn Hiền</v>
       </c>
       <c r="C36" s="1">
-        <v>86979</v>
+        <v>490282</v>
       </c>
       <c r="D36" s="1">
-        <v>467381775</v>
+        <v>NaN</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="B37" t="str">
-        <v>Nguyễn Thy Khuê</v>
+        <v>Lê Tuyết Hoa</v>
       </c>
       <c r="C37" s="1">
-        <v>68280</v>
+        <v>2176</v>
       </c>
       <c r="D37" s="1">
-        <v>457977769</v>
+        <v>NaN</v>
       </c>
       <c r="E37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B38" t="str">
-        <v>Huỳnh Thắng Toàn</v>
+        <v>Nguyễn Thị Xuân Hoa</v>
       </c>
       <c r="C38" s="1">
-        <v>61855</v>
+        <v>10675</v>
       </c>
       <c r="D38" s="1">
-        <v>455220385</v>
+        <v>NaN</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="str">
-        <v>Mã Nguyễn Minh Tùng</v>
+        <v>Trần Thị Tố Hoa</v>
       </c>
       <c r="C39" s="1">
-        <v>55919</v>
+        <v>108226</v>
       </c>
       <c r="D39" s="1">
-        <v>408368699</v>
+        <v>NaN</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B40" t="str">
-        <v>Nguyễn Thy Anh</v>
+        <v>Nguyễn Hữu Hoàn</v>
       </c>
       <c r="C40" s="1">
-        <v>65320</v>
+        <v>10678</v>
       </c>
       <c r="D40" s="1">
-        <v>397296976</v>
+        <v>NaN</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>Đinh Quyết Tâm</v>
+        <v>Phan Hữu Bội Hoàn</v>
       </c>
       <c r="C41" s="1">
-        <v>31422</v>
+        <v>110862</v>
       </c>
       <c r="D41" s="1">
-        <v>379958786</v>
+        <v>NaN</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B42" t="str">
-        <v>Dương Phi Sơn</v>
+        <v>Trương Thị Mỹ Hoàng</v>
       </c>
       <c r="C42" s="1">
-        <v>61908</v>
+        <v>4734</v>
       </c>
       <c r="D42" s="1">
-        <v>359417350</v>
+        <v>NaN</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>176</v>
+        <v>vtkh</v>
       </c>
       <c r="B43" t="str">
-        <v>Lê Ngọc Hồng Nhung</v>
+        <v>Võ Thị Kim Hoàng</v>
       </c>
       <c r="C43" s="1">
-        <v>77251</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>354616795</v>
+        <v>NaN</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Bán lẻ</v>
+        <v>76</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Nguyễn Thị Ánh Hồng</v>
       </c>
       <c r="C44" s="1">
-        <v>21522</v>
+        <v>157548</v>
       </c>
       <c r="D44" s="1">
-        <v>351912837</v>
+        <v>NaN</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>177</v>
+        <v>ntth</v>
       </c>
       <c r="B45" t="str">
-        <v>Huỳnh Lộc Sơn</v>
+        <v>Nguyễn Thị Tuyết Hồng</v>
       </c>
       <c r="C45" s="1">
-        <v>41348</v>
+        <v>220</v>
       </c>
       <c r="D45" s="1">
-        <v>349821925</v>
+        <v>NaN</v>
       </c>
       <c r="E45">
         <v>43</v>
@@ -1152,16 +1152,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" t="str">
-        <v>Đoàn Thị Ngọc Đào</v>
+        <v>Bùi Bỉnh Huân</v>
       </c>
       <c r="C46" s="1">
-        <v>45576</v>
+        <v>101679</v>
       </c>
       <c r="D46" s="1">
-        <v>349363800</v>
+        <v>NaN</v>
       </c>
       <c r="E46">
         <v>44</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>13</v>
+        <v>nth</v>
       </c>
       <c r="B47" t="str">
-        <v>Nguyễn Thuý Nga</v>
+        <v>Ngô Tấn Hùng</v>
       </c>
       <c r="C47" s="1">
-        <v>53521</v>
+        <v>84</v>
       </c>
       <c r="D47" s="1">
-        <v>345294880</v>
+        <v>NaN</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B48" t="str">
-        <v>Nguyễn Hoàng Phước</v>
+        <v>Nguyễn văn Hưng</v>
       </c>
       <c r="C48" s="1">
-        <v>51859</v>
+        <v>187588</v>
       </c>
       <c r="D48" s="1">
-        <v>324099770</v>
+        <v>NaN</v>
       </c>
       <c r="E48">
         <v>46</v>
@@ -1203,16 +1203,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B49" t="str">
-        <v>Lê Hữu Quỳnh Trang</v>
+        <v>Trần Duy Hưng</v>
       </c>
       <c r="C49" s="1">
-        <v>53565</v>
+        <v>13115</v>
       </c>
       <c r="D49" s="1">
-        <v>307902024</v>
+        <v>NaN</v>
       </c>
       <c r="E49">
         <v>47</v>
@@ -1220,16 +1220,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B50" t="str">
-        <v>Nguyễn Kỳ Chân</v>
+        <v>Trần Tấn Hưng</v>
       </c>
       <c r="C50" s="1">
-        <v>30957</v>
+        <v>21268</v>
       </c>
       <c r="D50" s="1">
-        <v>303769925</v>
+        <v>NaN</v>
       </c>
       <c r="E50">
         <v>48</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B51" t="str">
-        <v>Mai Quang Vĩnh Long</v>
+        <v>Bùi Thị Vân Hương</v>
       </c>
       <c r="C51" s="1">
-        <v>64637</v>
+        <v>83674</v>
       </c>
       <c r="D51" s="1">
-        <v>298068095</v>
+        <v>NaN</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B52" t="str">
-        <v>Lê Đình Vĩnh Phúc</v>
+        <v>Nguyễn Thị Kim Hường</v>
       </c>
       <c r="C52" s="1">
-        <v>32327</v>
+        <v>10148</v>
       </c>
       <c r="D52" s="1">
-        <v>290618640</v>
+        <v>NaN</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>122</v>
+        <v>ntlh</v>
       </c>
       <c r="B53" t="str">
-        <v>Nguyễn Tấn Dũng</v>
+        <v>Nguyễn Thị Lan Hương</v>
       </c>
       <c r="C53" s="1">
-        <v>34569</v>
+        <v>248</v>
       </c>
       <c r="D53" s="1">
-        <v>289692270</v>
+        <v>NaN</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -1288,16 +1288,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B54" t="str">
-        <v>Nguyễn Tuyết Vân</v>
+        <v>Vũ Thị Thanh Huyền</v>
       </c>
       <c r="C54" s="1">
-        <v>50744</v>
+        <v>31759</v>
       </c>
       <c r="D54" s="1">
-        <v>288105350</v>
+        <v>NaN</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -1305,16 +1305,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="B55" t="str">
-        <v>Nguyễn Thị Lý</v>
+        <v>Đỗ Ngọc Anh Khoa</v>
       </c>
       <c r="C55" s="1">
-        <v>35930</v>
+        <v>3220</v>
       </c>
       <c r="D55" s="1">
-        <v>285526435</v>
+        <v>NaN</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -1322,16 +1322,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B56" t="str">
-        <v>Nguyễn Xuân Trình</v>
+        <v>Nguyễn Ngọc Khôi</v>
       </c>
       <c r="C56" s="1">
-        <v>54696</v>
+        <v>118319</v>
       </c>
       <c r="D56" s="1">
-        <v>277716443</v>
+        <v>NaN</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B57" t="str">
-        <v>Vũ Thị Thanh Huyền</v>
+        <v>Lê Tuấn Khuê</v>
       </c>
       <c r="C57" s="1">
-        <v>31759</v>
+        <v>8996</v>
       </c>
       <c r="D57" s="1">
-        <v>273439395</v>
+        <v>NaN</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B58" t="str">
-        <v>Huỳnh Đức Thục Đoan</v>
+        <v>Nguyễn Thy Khuê</v>
       </c>
       <c r="C58" s="1">
-        <v>34398</v>
+        <v>68280</v>
       </c>
       <c r="D58" s="1">
-        <v>273123543</v>
+        <v>NaN</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>22</v>
+        <v>bhl</v>
       </c>
       <c r="B59" t="str">
-        <v>Nguyễn Thị Kim Thuý</v>
+        <v>Bùi Hồng Lĩnh</v>
       </c>
       <c r="C59" s="1">
-        <v>47688</v>
+        <v>4251</v>
       </c>
       <c r="D59" s="1">
-        <v>272625665</v>
+        <v>NaN</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>144</v>
+        <v>đnk</v>
       </c>
       <c r="B60" t="str">
-        <v>Dương Đăng Ngọc Phương</v>
+        <v>Đăng Nguyên Khôi</v>
       </c>
       <c r="C60" s="1">
-        <v>10946</v>
+        <v>4662</v>
       </c>
       <c r="D60" s="1">
-        <v>268820905</v>
+        <v>NaN</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>216</v>
+        <v>ntk</v>
       </c>
       <c r="B61" t="str">
-        <v>Nguyễn Thi Phú</v>
+        <v>Nguyễn Trung Kiên</v>
       </c>
       <c r="C61" s="1">
-        <v>35934</v>
+        <v>259</v>
       </c>
       <c r="D61" s="1">
-        <v>253346217</v>
+        <v>NaN</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -1424,16 +1424,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B62" t="str">
-        <v>Đặng Văn Mon</v>
+        <v>Phùng Trọng Kiên</v>
       </c>
       <c r="C62" s="1">
-        <v>38996</v>
+        <v>159191</v>
       </c>
       <c r="D62" s="1">
-        <v>243492415</v>
+        <v>NaN</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B63" t="str">
-        <v>Nguyễn Thị Kim Uyên</v>
+        <v>Bùi Văn Kiệt</v>
       </c>
       <c r="C63" s="1">
-        <v>24180</v>
+        <v>2581</v>
       </c>
       <c r="D63" s="1">
-        <v>234843550</v>
+        <v>NaN</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="B64" t="str">
-        <v>Huỳnh Hoàng Điệp</v>
+        <v>Mai Huỳnh Lạc</v>
       </c>
       <c r="C64" s="1">
-        <v>29414</v>
+        <v>9352</v>
       </c>
       <c r="D64" s="1">
-        <v>233819409</v>
+        <v>NaN</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -1475,16 +1475,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B65" t="str">
-        <v>Phan Xuân Trung</v>
+        <v>Lý Thanh Lãm</v>
       </c>
       <c r="C65" s="1">
-        <v>37061</v>
+        <v>273848</v>
       </c>
       <c r="D65" s="1">
-        <v>230737295</v>
+        <v>NaN</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B66" t="str">
-        <v>Nguyễn Minh Thiền</v>
+        <v>Trương Ngọc Lễ</v>
       </c>
       <c r="C66" s="1">
-        <v>19899</v>
+        <v>1500</v>
       </c>
       <c r="D66" s="1">
-        <v>228962230</v>
+        <v>NaN</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="B67" t="str">
-        <v>Trương Tuấn Nhựt</v>
+        <v>Tạ Kim Liên</v>
       </c>
       <c r="C67" s="1">
-        <v>18854</v>
+        <v>430</v>
       </c>
       <c r="D67" s="1">
-        <v>226860160</v>
+        <v>NaN</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="B68" t="str">
-        <v>Phạm Huỳnh Bảo Trân</v>
+        <v>Huỳnh Thị Liễu</v>
       </c>
       <c r="C68" s="1">
-        <v>28220</v>
+        <v>180</v>
       </c>
       <c r="D68" s="1">
-        <v>223069250</v>
+        <v>NaN</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -1543,16 +1543,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>Nguyễn Kim Thái</v>
+        <v>Lê Hữu Linh</v>
       </c>
       <c r="C69" s="1">
-        <v>39525</v>
+        <v>14095</v>
       </c>
       <c r="D69" s="1">
-        <v>218177996</v>
+        <v>NaN</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -1560,16 +1560,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B70" t="str">
-        <v>Nguyễn Thị Tuyết Mai</v>
+        <v>Nguyễn Đình Linh</v>
       </c>
       <c r="C70" s="1">
-        <v>38258</v>
+        <v>240964</v>
       </c>
       <c r="D70" s="1">
-        <v>215038235</v>
+        <v>NaN</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>153</v>
+        <v>vtl</v>
       </c>
       <c r="B71" t="str">
-        <v>Nguyễn Thị Xuân Hoa</v>
+        <v>Võ Thị Loan</v>
       </c>
       <c r="C71" s="1">
-        <v>10675</v>
+        <v>85</v>
       </c>
       <c r="D71" s="1">
-        <v>213072830</v>
+        <v>NaN</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B72" t="str">
-        <v>Võ Hiếu Thành</v>
+        <v>Mai Quang Vĩnh Long</v>
       </c>
       <c r="C72" s="1">
-        <v>28452</v>
+        <v>64637</v>
       </c>
       <c r="D72" s="1">
-        <v>202110881</v>
+        <v>NaN</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B73" t="str">
-        <v>Vũ Bích Đoan Trang</v>
+        <v>Huỳnh Trác Luân</v>
       </c>
       <c r="C73" s="1">
-        <v>34065</v>
+        <v>416432</v>
       </c>
       <c r="D73" s="1">
-        <v>181133769</v>
+        <v>NaN</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -1628,16 +1628,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B74" t="str">
-        <v>Trần Tấn Hưng</v>
+        <v>Lê Thông Lưu</v>
       </c>
       <c r="C74" s="1">
-        <v>21268</v>
+        <v>12683</v>
       </c>
       <c r="D74" s="1">
-        <v>170643950</v>
+        <v>NaN</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -1654,7 +1654,7 @@
         <v>15792</v>
       </c>
       <c r="D75" s="1">
-        <v>164360460</v>
+        <v>NaN</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -1662,16 +1662,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B76" t="str">
-        <v>Phan Anh Tuấn</v>
+        <v>Nguyễn Thị Lý</v>
       </c>
       <c r="C76" s="1">
-        <v>15015</v>
+        <v>35930</v>
       </c>
       <c r="D76" s="1">
-        <v>163604830</v>
+        <v>NaN</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -1679,16 +1679,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B77" t="str">
-        <v>Trần Thị Hồng Vân</v>
+        <v>Nguyễn Thị Tuyết Mai</v>
       </c>
       <c r="C77" s="1">
-        <v>25628</v>
+        <v>38258</v>
       </c>
       <c r="D77" s="1">
-        <v>158711116</v>
+        <v>NaN</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B78" t="str">
-        <v>Lê Thị Hữu Phận</v>
+        <v>Tôn Nữ Sao Mai</v>
       </c>
       <c r="C78" s="1">
-        <v>14781</v>
+        <v>17922</v>
       </c>
       <c r="D78" s="1">
-        <v>157542430</v>
+        <v>NaN</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -1713,16 +1713,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B79" t="str">
-        <v>Dương Quang Triết</v>
+        <v>Đặng Văn Mon</v>
       </c>
       <c r="C79" s="1">
-        <v>24120</v>
+        <v>38996</v>
       </c>
       <c r="D79" s="1">
-        <v>155154493</v>
+        <v>NaN</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -1730,16 +1730,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B80" t="str">
-        <v>Phạm Thế Anh</v>
+        <v>Trần Văn Nam</v>
       </c>
       <c r="C80" s="1">
-        <v>13805</v>
+        <v>187482</v>
       </c>
       <c r="D80" s="1">
-        <v>148641823</v>
+        <v>NaN</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B81" t="str">
-        <v>Lê Thông Lưu</v>
+        <v>Dương Quang Huỳnh Nga</v>
       </c>
       <c r="C81" s="1">
-        <v>12683</v>
+        <v>1659</v>
       </c>
       <c r="D81" s="1">
-        <v>147266140</v>
+        <v>NaN</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -1764,16 +1764,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B82" t="str">
-        <v>Nguyễn Thành Đăng</v>
+        <v>Nguyễn Thuý Nga</v>
       </c>
       <c r="C82" s="1">
-        <v>19547</v>
+        <v>53521</v>
       </c>
       <c r="D82" s="1">
-        <v>146178395</v>
+        <v>NaN</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B83" t="str">
-        <v>Ngô Thị Lệ Dung</v>
+        <v>Võ Nguyễn Thành Nhân</v>
       </c>
       <c r="C83" s="1">
-        <v>21868</v>
+        <v>8101</v>
       </c>
       <c r="D83" s="1">
-        <v>144489785</v>
+        <v>NaN</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="B84" t="str">
-        <v>Bùi Quang Vinh</v>
+        <v>Lê Ngọc Hồng Nhung</v>
       </c>
       <c r="C84" s="1">
-        <v>21328</v>
+        <v>77251</v>
       </c>
       <c r="D84" s="1">
-        <v>141998695</v>
+        <v>NaN</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="B85" t="str">
-        <v>Trần Duy Hưng</v>
+        <v>Trương Tuấn Nhựt</v>
       </c>
       <c r="C85" s="1">
-        <v>13115</v>
+        <v>18854</v>
       </c>
       <c r="D85" s="1">
-        <v>141760420</v>
+        <v>NaN</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="B86" t="str">
-        <v>Lê Hữu Linh</v>
+        <v>Lý Văn Phái</v>
       </c>
       <c r="C86" s="1">
-        <v>14095</v>
+        <v>125271</v>
       </c>
       <c r="D86" s="1">
-        <v>140157650</v>
+        <v>NaN</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -1849,16 +1849,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="B87" t="str">
-        <v>Lê Thị Thuý An</v>
+        <v>Lê Thị Hữu Phận</v>
       </c>
       <c r="C87" s="1">
-        <v>22477</v>
+        <v>14781</v>
       </c>
       <c r="D87" s="1">
-        <v>135750340</v>
+        <v>NaN</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="B88" t="str">
-        <v>Phạm Võ Minh Thắng</v>
+        <v>Neang Si PhátS</v>
       </c>
       <c r="C88" s="1">
-        <v>13074</v>
+        <v>3884</v>
       </c>
       <c r="D88" s="1">
-        <v>134877450</v>
+        <v>NaN</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="B89" t="str">
-        <v>Hoàng Tường</v>
+        <v>Lê Thị Minh Phú</v>
       </c>
       <c r="C89" s="1">
-        <v>21741</v>
+        <v>18528</v>
       </c>
       <c r="D89" s="1">
-        <v>134150630</v>
+        <v>NaN</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="B90" t="str">
-        <v>Nguyễn Thị Ngọc Trâm</v>
+        <v>Nguyễn Thi Phú</v>
       </c>
       <c r="C90" s="1">
-        <v>22131</v>
+        <v>35934</v>
       </c>
       <c r="D90" s="1">
-        <v>133016325</v>
+        <v>NaN</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B91" t="str">
-        <v>Trần Chí Đủ</v>
+        <v>Đặng Vĩnh Phúc</v>
       </c>
       <c r="C91" s="1">
-        <v>20354</v>
+        <v>10155</v>
       </c>
       <c r="D91" s="1">
-        <v>132381607</v>
+        <v>NaN</v>
       </c>
       <c r="E91">
         <v>89</v>
@@ -1934,16 +1934,16 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B92" t="str">
-        <v>Tôn Nữ Sao Mai</v>
+        <v>Lê Đình Vĩnh Phúc</v>
       </c>
       <c r="C92" s="1">
-        <v>17922</v>
+        <v>32327</v>
       </c>
       <c r="D92" s="1">
-        <v>116996530</v>
+        <v>NaN</v>
       </c>
       <c r="E92">
         <v>90</v>
@@ -1951,16 +1951,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="B93" t="str">
-        <v>Nguyễn An</v>
+        <v>Nguyễn Hoàng Phước</v>
       </c>
       <c r="C93" s="1">
-        <v>12762</v>
+        <v>51859</v>
       </c>
       <c r="D93" s="1">
-        <v>116152440</v>
+        <v>NaN</v>
       </c>
       <c r="E93">
         <v>91</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>99</v>
+        <v>cnmp</v>
       </c>
       <c r="B94" t="str">
-        <v>Lê Tuấn Khuê</v>
+        <v>Châu Ngọc Minh Phương</v>
       </c>
       <c r="C94" s="1">
-        <v>8996</v>
+        <v>622</v>
       </c>
       <c r="D94" s="1">
-        <v>103045162</v>
+        <v>NaN</v>
       </c>
       <c r="E94">
         <v>92</v>
@@ -1985,16 +1985,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B95" t="str">
-        <v>Phan Nguyên Thiên Châu</v>
+        <v>Dương Đăng Ngọc Phương</v>
       </c>
       <c r="C95" s="1">
-        <v>13184</v>
+        <v>10946</v>
       </c>
       <c r="D95" s="1">
-        <v>98539015</v>
+        <v>NaN</v>
       </c>
       <c r="E95">
         <v>93</v>
@@ -2002,16 +2002,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>203</v>
+        <v>nhq</v>
       </c>
       <c r="B96" t="str">
-        <v>Lê Thị Minh Phú</v>
+        <v>Nguyễn Hoàng Quân</v>
       </c>
       <c r="C96" s="1">
-        <v>18528</v>
+        <v>725</v>
       </c>
       <c r="D96" s="1">
-        <v>95037095</v>
+        <v>NaN</v>
       </c>
       <c r="E96">
         <v>94</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="B97" t="str">
-        <v>Mai Huỳnh Lạc</v>
+        <v>Lê Trọng Quý</v>
       </c>
       <c r="C97" s="1">
-        <v>9352</v>
+        <v>58264</v>
       </c>
       <c r="D97" s="1">
-        <v>86642495</v>
+        <v>NaN</v>
       </c>
       <c r="E97">
         <v>95</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B98" t="str">
-        <v>Nguyễn Hữu Hoàn</v>
+        <v>Nguyễn Đăng Sảng</v>
       </c>
       <c r="C98" s="1">
-        <v>10678</v>
+        <v>103873</v>
       </c>
       <c r="D98" s="1">
-        <v>83319710</v>
+        <v>NaN</v>
       </c>
       <c r="E98">
         <v>96</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="B99" t="str">
-        <v>Trương Đoàn Chí Trung</v>
+        <v>Nguyễn Thị Kim Sáng</v>
       </c>
       <c r="C99" s="1">
-        <v>7808</v>
+        <v>315</v>
       </c>
       <c r="D99" s="1">
-        <v>79613290</v>
+        <v>NaN</v>
       </c>
       <c r="E99">
         <v>97</v>
@@ -2070,16 +2070,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B100" t="str">
-        <v>Neang Si PhátS</v>
+        <v>Dương Phi Sơn</v>
       </c>
       <c r="C100" s="1">
-        <v>3884</v>
+        <v>61908</v>
       </c>
       <c r="D100" s="1">
-        <v>78006340</v>
+        <v>NaN</v>
       </c>
       <c r="E100">
         <v>98</v>
@@ -2087,16 +2087,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B101" t="str">
-        <v>Nguyễn Thị Kim Hường</v>
+        <v>Huỳnh Lộc Sơn</v>
       </c>
       <c r="C101" s="1">
-        <v>10148</v>
+        <v>41348</v>
       </c>
       <c r="D101" s="1">
-        <v>75226952</v>
+        <v>NaN</v>
       </c>
       <c r="E101">
         <v>99</v>
@@ -2104,16 +2104,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B102" t="str">
-        <v>Đặng Vĩnh Phúc</v>
+        <v>Đinh Quyết Tâm</v>
       </c>
       <c r="C102" s="1">
-        <v>10155</v>
+        <v>31422</v>
       </c>
       <c r="D102" s="1">
-        <v>74104853</v>
+        <v>NaN</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B103" t="str">
-        <v>Dương Ngọc Thành</v>
+        <v>Nguyễn Kim Thái</v>
       </c>
       <c r="C103" s="1">
-        <v>7716</v>
+        <v>39525</v>
       </c>
       <c r="D103" s="1">
-        <v>69457700</v>
+        <v>NaN</v>
       </c>
       <c r="E103">
         <v>101</v>
@@ -2147,7 +2147,7 @@
         <v>16904</v>
       </c>
       <c r="D104" s="1">
-        <v>64958150</v>
+        <v>NaN</v>
       </c>
       <c r="E104">
         <v>102</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>đnk</v>
+        <v>1</v>
       </c>
       <c r="B105" t="str">
-        <v>Đăng Nguyên Khôi</v>
+        <v>Phạm Võ Minh Thắng</v>
       </c>
       <c r="C105" s="1">
-        <v>4662</v>
+        <v>13074</v>
       </c>
       <c r="D105" s="1">
-        <v>60109245</v>
+        <v>NaN</v>
       </c>
       <c r="E105">
         <v>103</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="B106" t="str">
-        <v>Võ Nguyễn Thành Nhân</v>
+        <v>Dương Ngọc Thành</v>
       </c>
       <c r="C106" s="1">
-        <v>8101</v>
+        <v>7716</v>
       </c>
       <c r="D106" s="1">
-        <v>53610390</v>
+        <v>NaN</v>
       </c>
       <c r="E106">
         <v>104</v>
@@ -2189,16 +2189,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="B107" t="str">
-        <v>Đỗ Thu Hằng</v>
+        <v>Trương Công Thành</v>
       </c>
       <c r="C107" s="1">
-        <v>5753</v>
+        <v>114386</v>
       </c>
       <c r="D107" s="1">
-        <v>51872295</v>
+        <v>NaN</v>
       </c>
       <c r="E107">
         <v>105</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B108" t="str">
-        <v>Nguyễn Tuấn Cường</v>
+        <v>Võ Hiếu Thành</v>
       </c>
       <c r="C108" s="1">
-        <v>14537</v>
+        <v>28452</v>
       </c>
       <c r="D108" s="1">
-        <v>45771325</v>
+        <v>NaN</v>
       </c>
       <c r="E108">
         <v>106</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B109" t="str">
-        <v>Trương Thị Mỹ Hoàng</v>
+        <v>Nguyễn Thị Thu Thảo</v>
       </c>
       <c r="C109" s="1">
-        <v>4734</v>
+        <v>2830</v>
       </c>
       <c r="D109" s="1">
-        <v>31113450</v>
+        <v>NaN</v>
       </c>
       <c r="E109">
         <v>107</v>
@@ -2240,16 +2240,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="B110" t="str">
-        <v>Đỗ Ngọc Anh Khoa</v>
+        <v>Võ Nguyễn Hương Thảo</v>
       </c>
       <c r="C110" s="1">
-        <v>3220</v>
+        <v>1134</v>
       </c>
       <c r="D110" s="1">
-        <v>29980015</v>
+        <v>NaN</v>
       </c>
       <c r="E110">
         <v>108</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B111" t="str">
-        <v>Bùi Văn Kiệt</v>
+        <v>Đặng Bữu Thất</v>
       </c>
       <c r="C111" s="1">
-        <v>2581</v>
+        <v>79600</v>
       </c>
       <c r="D111" s="1">
-        <v>27723786</v>
+        <v>NaN</v>
       </c>
       <c r="E111">
         <v>109</v>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>nlđ</v>
+        <v>68</v>
       </c>
       <c r="B112" t="str">
-        <v>Nguyễn Lan Đình</v>
+        <v>Nguyễn Minh Thiền</v>
       </c>
       <c r="C112" s="1">
-        <v>2453</v>
+        <v>19899</v>
       </c>
       <c r="D112" s="1">
-        <v>26915213</v>
+        <v>NaN</v>
       </c>
       <c r="E112">
         <v>110</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B113" t="str">
-        <v>Nại Thị Hương Thoang</v>
+        <v>Võ Trọng Thịnh</v>
       </c>
       <c r="C113" s="1">
-        <v>3740</v>
+        <v>141406</v>
       </c>
       <c r="D113" s="1">
-        <v>26404940</v>
+        <v>NaN</v>
       </c>
       <c r="E113">
         <v>111</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>bhl</v>
+        <v>82</v>
       </c>
       <c r="B114" t="str">
-        <v>Bùi Hồng Lĩnh</v>
+        <v>Vũ Hồng Thịnh</v>
       </c>
       <c r="C114" s="1">
-        <v>4251</v>
+        <v>2174</v>
       </c>
       <c r="D114" s="1">
-        <v>24626200</v>
+        <v>NaN</v>
       </c>
       <c r="E114">
         <v>112</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>nht</v>
+        <v>150</v>
       </c>
       <c r="B115" t="str">
-        <v>Nguyễn Hoài Thu</v>
+        <v>Nguyễn Linh Thoại</v>
       </c>
       <c r="C115" s="1">
-        <v>3905</v>
+        <v>311913</v>
       </c>
       <c r="D115" s="1">
-        <v>21478815</v>
+        <v>NaN</v>
       </c>
       <c r="E115">
         <v>113</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B116" t="str">
-        <v>Trần Minh Đúng</v>
+        <v>Nại Thị Hương Thoang</v>
       </c>
       <c r="C116" s="1">
-        <v>4114</v>
+        <v>3740</v>
       </c>
       <c r="D116" s="1">
-        <v>21388120</v>
+        <v>NaN</v>
       </c>
       <c r="E116">
         <v>114</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B117" t="str">
-        <v>Đoàn Thị Thanh Vy</v>
+        <v>Phạm Thiện Thông</v>
       </c>
       <c r="C117" s="1">
-        <v>1840</v>
+        <v>89779</v>
       </c>
       <c r="D117" s="1">
-        <v>20589160</v>
+        <v>NaN</v>
       </c>
       <c r="E117">
         <v>115</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>91</v>
+        <v>nht</v>
       </c>
       <c r="B118" t="str">
-        <v>Trương Ngọc Lễ</v>
+        <v>Nguyễn Hoài Thu</v>
       </c>
       <c r="C118" s="1">
-        <v>1500</v>
+        <v>3905</v>
       </c>
       <c r="D118" s="1">
-        <v>18175900</v>
+        <v>NaN</v>
       </c>
       <c r="E118">
         <v>116</v>
@@ -2393,16 +2393,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B119" t="str">
-        <v>Vũ Hồng Thịnh</v>
+        <v>Trương Hoàng Anh Thư</v>
       </c>
       <c r="C119" s="1">
-        <v>2174</v>
+        <v>88234</v>
       </c>
       <c r="D119" s="1">
-        <v>17699515</v>
+        <v>NaN</v>
       </c>
       <c r="E119">
         <v>117</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>215</v>
+        <v>tqt</v>
       </c>
       <c r="B120" t="str">
-        <v>Nguyễn Thị Thu Thảo</v>
+        <v>Trần Quang Thuận</v>
       </c>
       <c r="C120" s="1">
-        <v>2830</v>
+        <v>971</v>
       </c>
       <c r="D120" s="1">
-        <v>17039550</v>
+        <v>NaN</v>
       </c>
       <c r="E120">
         <v>118</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="B121" t="str">
-        <v>Lê Tuyết Hoa</v>
+        <v>Nguyễn Thị Kim Thuý</v>
       </c>
       <c r="C121" s="1">
-        <v>2176</v>
+        <v>47688</v>
       </c>
       <c r="D121" s="1">
-        <v>14684135</v>
+        <v>NaN</v>
       </c>
       <c r="E121">
         <v>119</v>
@@ -2444,16 +2444,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>nhq</v>
+        <v>57</v>
       </c>
       <c r="B122" t="str">
-        <v>Nguyễn Hoàng Quân</v>
+        <v>Phạm Thị Thu Thuỷ</v>
       </c>
       <c r="C122" s="1">
-        <v>725</v>
+        <v>274281</v>
       </c>
       <c r="D122" s="1">
-        <v>12815130</v>
+        <v>NaN</v>
       </c>
       <c r="E122">
         <v>120</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B123" t="str">
-        <v>Dương Quang Huỳnh Nga</v>
+        <v>Lê Đình Tín</v>
       </c>
       <c r="C123" s="1">
-        <v>1659</v>
+        <v>243452</v>
       </c>
       <c r="D123" s="1">
-        <v>10604415</v>
+        <v>NaN</v>
       </c>
       <c r="E123">
         <v>121</v>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>nnv</v>
+        <v>17</v>
       </c>
       <c r="B124" t="str">
-        <v>Nguyễn Nghiệp Văn</v>
+        <v>Huỳnh Thắng Toàn</v>
       </c>
       <c r="C124" s="1">
-        <v>1504</v>
+        <v>61855</v>
       </c>
       <c r="D124" s="1">
-        <v>8807535</v>
+        <v>NaN</v>
       </c>
       <c r="E124">
         <v>122</v>
@@ -2495,16 +2495,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>70</v>
+        <v>pct</v>
       </c>
       <c r="B125" t="str">
-        <v>Võ Nguyễn Hương Thảo</v>
+        <v>Phạm Chí Toàn</v>
       </c>
       <c r="C125" s="1">
-        <v>1134</v>
+        <v>200</v>
       </c>
       <c r="D125" s="1">
-        <v>6426825</v>
+        <v>NaN</v>
       </c>
       <c r="E125">
         <v>123</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>cnmp</v>
+        <v>61</v>
       </c>
       <c r="B126" t="str">
-        <v>Châu Ngọc Minh Phương</v>
+        <v>Nguyễn Thị Ngọc Trâm</v>
       </c>
       <c r="C126" s="1">
-        <v>622</v>
+        <v>22131</v>
       </c>
       <c r="D126" s="1">
-        <v>4300295</v>
+        <v>NaN</v>
       </c>
       <c r="E126">
         <v>124</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>tqt</v>
+        <v>119</v>
       </c>
       <c r="B127" t="str">
-        <v>Trần Quang Thuận</v>
+        <v>Phạm Huỳnh Bảo Trân</v>
       </c>
       <c r="C127" s="1">
-        <v>971</v>
+        <v>28220</v>
       </c>
       <c r="D127" s="1">
-        <v>3690040</v>
+        <v>NaN</v>
       </c>
       <c r="E127">
         <v>125</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>ptvb</v>
+        <v>102</v>
       </c>
       <c r="B128" t="str">
-        <v>Phan Thanh Việt Bình</v>
+        <v>Lê Hữu Quỳnh Trang</v>
       </c>
       <c r="C128" s="1">
-        <v>321</v>
+        <v>53565</v>
       </c>
       <c r="D128" s="1">
-        <v>3602200</v>
+        <v>NaN</v>
       </c>
       <c r="E128">
         <v>126</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>ttc</v>
+        <v>ttt</v>
       </c>
       <c r="B129" t="str">
-        <v>Trần Thanh Cường</v>
+        <v>Trần Thùy Trang</v>
       </c>
       <c r="C129" s="1">
-        <v>606</v>
+        <v>300</v>
       </c>
       <c r="D129" s="1">
-        <v>2632750</v>
+        <v>NaN</v>
       </c>
       <c r="E129">
         <v>127</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="B130" t="str">
-        <v>Trần Anh Tuấn</v>
+        <v>Vũ Bích Đoan Trang</v>
       </c>
       <c r="C130" s="1">
-        <v>369</v>
+        <v>34065</v>
       </c>
       <c r="D130" s="1">
-        <v>2504205</v>
+        <v>NaN</v>
       </c>
       <c r="E130">
         <v>128</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B131" t="str">
-        <v>Tạ Kim Liên</v>
+        <v>Dương Quang Triết</v>
       </c>
       <c r="C131" s="1">
-        <v>430</v>
+        <v>24120</v>
       </c>
       <c r="D131" s="1">
-        <v>2442190</v>
+        <v>NaN</v>
       </c>
       <c r="E131">
         <v>129</v>
@@ -2614,16 +2614,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="B132" t="str">
-        <v>Bùi Như Giang</v>
+        <v>Nguyễn Xuân Trình</v>
       </c>
       <c r="C132" s="1">
-        <v>306</v>
+        <v>54696</v>
       </c>
       <c r="D132" s="1">
-        <v>2212500</v>
+        <v>NaN</v>
       </c>
       <c r="E132">
         <v>130</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>ntv</v>
+        <v>16</v>
       </c>
       <c r="B133" t="str">
-        <v>Nguyễn Triệu Vũ</v>
+        <v>Phan Xuân Trung</v>
       </c>
       <c r="C133" s="1">
-        <v>252</v>
+        <v>37061</v>
       </c>
       <c r="D133" s="1">
-        <v>2205000</v>
+        <v>NaN</v>
       </c>
       <c r="E133">
         <v>131</v>
@@ -2648,16 +2648,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>ttla</v>
+        <v>18</v>
       </c>
       <c r="B134" t="str">
-        <v>Trần Thị Lan Anh</v>
+        <v>Trương Đoàn Chí Trung</v>
       </c>
       <c r="C134" s="1">
-        <v>323</v>
+        <v>7808</v>
       </c>
       <c r="D134" s="1">
-        <v>2080270</v>
+        <v>NaN</v>
       </c>
       <c r="E134">
         <v>132</v>
@@ -2665,16 +2665,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>pct</v>
+        <v>66</v>
       </c>
       <c r="B135" t="str">
-        <v>Phạm Chí Toàn</v>
+        <v>Phan Anh Tuấn</v>
       </c>
       <c r="C135" s="1">
-        <v>200</v>
+        <v>15015</v>
       </c>
       <c r="D135" s="1">
-        <v>2008560</v>
+        <v>NaN</v>
       </c>
       <c r="E135">
         <v>133</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>ttt</v>
+        <v>158</v>
       </c>
       <c r="B136" t="str">
-        <v>Trần Thùy Trang</v>
+        <v>Trần Anh Tuấn</v>
       </c>
       <c r="C136" s="1">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="D136" s="1">
-        <v>1631100</v>
+        <v>NaN</v>
       </c>
       <c r="E136">
         <v>134</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>btkd</v>
+        <v>48</v>
       </c>
       <c r="B137" t="str">
-        <v>Bùi Thị Kiều Diễm</v>
+        <v>Dương Xuân Tùng</v>
       </c>
       <c r="C137" s="1">
-        <v>210</v>
+        <v>50087</v>
       </c>
       <c r="D137" s="1">
-        <v>1415700</v>
+        <v>NaN</v>
       </c>
       <c r="E137">
         <v>135</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>ntth</v>
+        <v>33</v>
       </c>
       <c r="B138" t="str">
-        <v>Nguyễn Thị Tuyết Hồng</v>
+        <v>Mã Nguyễn Minh Tùng</v>
       </c>
       <c r="C138" s="1">
-        <v>220</v>
+        <v>55919</v>
       </c>
       <c r="D138" s="1">
-        <v>1353100</v>
+        <v>NaN</v>
       </c>
       <c r="E138">
         <v>136</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>ntv</v>
+        <v>103</v>
       </c>
       <c r="B139" t="str">
-        <v>Nguyễn Trung Vinh</v>
+        <v>Hoàng Tường</v>
       </c>
       <c r="C139" s="1">
-        <v>88</v>
+        <v>21741</v>
       </c>
       <c r="D139" s="1">
-        <v>1319100</v>
+        <v>NaN</v>
       </c>
       <c r="E139">
         <v>137</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>vtl</v>
+        <v>53</v>
       </c>
       <c r="B140" t="str">
-        <v>Võ Thị Loan</v>
+        <v>Nguyễn Thị Kim Uyên</v>
       </c>
       <c r="C140" s="1">
-        <v>85</v>
+        <v>24180</v>
       </c>
       <c r="D140" s="1">
-        <v>1141300</v>
+        <v>NaN</v>
       </c>
       <c r="E140">
         <v>138</v>
@@ -2767,16 +2767,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>ntk</v>
+        <v>nnv</v>
       </c>
       <c r="B141" t="str">
-        <v>Nguyễn Trung Kiên</v>
+        <v>Nguyễn Nghiệp Văn</v>
       </c>
       <c r="C141" s="1">
-        <v>259</v>
+        <v>1504</v>
       </c>
       <c r="D141" s="1">
-        <v>1115280</v>
+        <v>NaN</v>
       </c>
       <c r="E141">
         <v>139</v>
@@ -2784,16 +2784,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="B142" t="str">
-        <v>Nguyễn Thị Kim Sáng</v>
+        <v>Nguyễn Tuyết Vân</v>
       </c>
       <c r="C142" s="1">
-        <v>315</v>
+        <v>50744</v>
       </c>
       <c r="D142" s="1">
-        <v>1021725</v>
+        <v>NaN</v>
       </c>
       <c r="E142">
         <v>140</v>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="B143" t="str">
-        <v>Huỳnh Thị Liễu</v>
+        <v>Trần Thị Hồng Vân</v>
       </c>
       <c r="C143" s="1">
-        <v>180</v>
+        <v>25628</v>
       </c>
       <c r="D143" s="1">
-        <v>972900</v>
+        <v>NaN</v>
       </c>
       <c r="E143">
         <v>141</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>nth</v>
+        <v>10</v>
       </c>
       <c r="B144" t="str">
-        <v>Nguyễn Thị Hậu</v>
+        <v>Bùi Quang Vinh</v>
       </c>
       <c r="C144" s="1">
-        <v>91</v>
+        <v>21328</v>
       </c>
       <c r="D144" s="1">
-        <v>849550</v>
+        <v>NaN</v>
       </c>
       <c r="E144">
         <v>142</v>
@@ -2835,16 +2835,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>dqv</v>
+        <v>ntv</v>
       </c>
       <c r="B145" t="str">
-        <v>Dương Quang Vũ</v>
+        <v>Nguyễn Trung Vinh</v>
       </c>
       <c r="C145" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D145" s="1">
-        <v>804700</v>
+        <v>NaN</v>
       </c>
       <c r="E145">
         <v>143</v>
@@ -2852,16 +2852,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>ntlh</v>
+        <v>35</v>
       </c>
       <c r="B146" t="str">
-        <v>Nguyễn Thị Lan Hương</v>
+        <v>Lư Hoàng Vũ</v>
       </c>
       <c r="C146" s="1">
-        <v>248</v>
+        <v>74003</v>
       </c>
       <c r="D146" s="1">
-        <v>468120</v>
+        <v>NaN</v>
       </c>
       <c r="E146">
         <v>144</v>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>nth</v>
+        <v>ntv</v>
       </c>
       <c r="B147" t="str">
-        <v>Ngô Tấn Hùng</v>
+        <v>Nguyễn Triệu Vũ</v>
       </c>
       <c r="C147" s="1">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D147" s="1">
-        <v>280140</v>
+        <v>NaN</v>
       </c>
       <c r="E147">
         <v>145</v>
@@ -2886,16 +2886,16 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>bđh</v>
+        <v>72</v>
       </c>
       <c r="B148" t="str">
-        <v>Bùi Đức Hiền</v>
+        <v>Nguyễn Tuấn Vũ</v>
       </c>
       <c r="C148" s="1">
-        <v>45</v>
+        <v>273186</v>
       </c>
       <c r="D148" s="1">
-        <v>93825</v>
+        <v>NaN</v>
       </c>
       <c r="E148">
         <v>146</v>
@@ -2903,16 +2903,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>vtkh</v>
+        <v>dqv</v>
       </c>
       <c r="B149" t="str">
-        <v>Võ Thị Kim Hoàng</v>
+        <v>Dương Quang Vũ</v>
       </c>
       <c r="C149" s="1">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D149" s="1">
-        <v>82200</v>
+        <v>NaN</v>
       </c>
       <c r="E149">
         <v>147</v>
@@ -2920,16 +2920,16 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>ltc</v>
+        <v>94</v>
       </c>
       <c r="B150" t="str">
-        <v>Lê Thanh Chương</v>
+        <v>Đoàn Thị Thanh Vy</v>
       </c>
       <c r="C150" s="1">
-        <v>30</v>
+        <v>1840</v>
       </c>
       <c r="D150" s="1">
-        <v>42300</v>
+        <v>NaN</v>
       </c>
       <c r="E150">
         <v>148</v>
@@ -2943,7 +2943,7 @@
         <v>7720821</v>
       </c>
       <c r="D151" s="1">
-        <v>60094586219</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/_summary.xlsx
+++ b/dist/document/dest/2020/10/doctors/_summary.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,16 +410,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B2" t="str">
-        <v>Lê Thị Thuý An</v>
+        <v>Nguyễn Văn Hiền</v>
       </c>
       <c r="C2" s="1">
-        <v>22477</v>
+        <v>434888</v>
       </c>
       <c r="D2" s="1">
-        <v>NaN</v>
+        <v>4101775490</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -427,16 +427,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="str">
-        <v>Nguyễn Thị Hồng Anh</v>
+        <v>Huỳnh Trác Luân</v>
       </c>
       <c r="C3" s="1">
-        <v>132497</v>
+        <v>346488</v>
       </c>
       <c r="D3" s="1">
-        <v>NaN</v>
+        <v>2539112485</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -444,81 +444,87 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bán lẻ</v>
+        <v>150</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nguyễn Linh Thoại</v>
       </c>
       <c r="C4" s="1">
-        <v>21522</v>
+        <v>305122</v>
       </c>
       <c r="D4" s="1">
-        <v>NaN</v>
+        <v>2278436665</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="B5" t="str">
-        <v>Nguyễn An</v>
+        <v>Phạm Thị Thu Thuỷ</v>
       </c>
       <c r="C5" s="1">
-        <v>12762</v>
+        <v>176498</v>
       </c>
       <c r="D5" s="1">
-        <v>NaN</v>
+        <v>2231514145</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B6" t="str">
-        <v>Nguyễn Thy Anh</v>
+        <v>Lý Thanh Lãm</v>
       </c>
       <c r="C6" s="1">
-        <v>65320</v>
+        <v>274480</v>
       </c>
       <c r="D6" s="1">
-        <v>NaN</v>
+        <v>2226933438</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="B7" t="str">
-        <v>Phạm Thế Anh</v>
+        <v>Nguyễn Tuấn Vũ</v>
       </c>
       <c r="C7" s="1">
-        <v>13805</v>
+        <v>228126</v>
       </c>
       <c r="D7" s="1">
-        <v>NaN</v>
+        <v>1575602285</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ttla</v>
+        <v>146</v>
       </c>
       <c r="B8" t="str">
-        <v>Trần Thị Lan Anh</v>
+        <v>Lê Đình Tín</v>
       </c>
       <c r="C8" s="1">
-        <v>323</v>
+        <v>223234</v>
       </c>
       <c r="D8" s="1">
-        <v>NaN</v>
+        <v>1466671684</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -529,724 +535,718 @@
         <v>Phù Dung Thái Biểu</v>
       </c>
       <c r="C9" s="1">
-        <v>154286</v>
+        <v>113467</v>
       </c>
       <c r="D9" s="1">
-        <v>NaN</v>
+        <v>1459817555</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ptvb</v>
+        <v>56</v>
       </c>
       <c r="B10" t="str">
-        <v>Phan Thanh Việt Bình</v>
+        <v>Hồ Tấn Đạt</v>
       </c>
       <c r="C10" s="1">
-        <v>321</v>
+        <v>110489</v>
       </c>
       <c r="D10" s="1">
-        <v>NaN</v>
+        <v>1408178845</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="B11" t="str">
-        <v>Lương Thanh Bửu</v>
+        <v>Nguyễn Đình Linh</v>
       </c>
       <c r="C11" s="1">
-        <v>172404</v>
+        <v>214806</v>
       </c>
       <c r="D11" s="1">
-        <v>NaN</v>
+        <v>1357721685</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="B12" t="str">
-        <v>Nguyễn Kỳ Chân</v>
+        <v>Trần Văn Nam</v>
       </c>
       <c r="C12" s="1">
-        <v>30957</v>
+        <v>142202</v>
       </c>
       <c r="D12" s="1">
-        <v>NaN</v>
+        <v>1050658815</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="B13" t="str">
-        <v>Phạm Công Chánh</v>
+        <v>Lương Thanh Bửu</v>
       </c>
       <c r="C13" s="1">
-        <v>73241</v>
+        <v>122994</v>
       </c>
       <c r="D13" s="1">
-        <v>NaN</v>
+        <v>995500060</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="B14" t="str">
-        <v>Phan Nguyên Thiên Châu</v>
+        <v>Phan Hữu Bội Hoàn</v>
       </c>
       <c r="C14" s="1">
-        <v>13184</v>
+        <v>82619</v>
       </c>
       <c r="D14" s="1">
-        <v>NaN</v>
+        <v>986820380</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>ltc</v>
+        <v>76</v>
       </c>
       <c r="B15" t="str">
-        <v>Lê Thanh Chương</v>
+        <v>Nguyễn Thị Ánh Hồng</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
+        <v>166526</v>
       </c>
       <c r="D15" s="1">
-        <v>NaN</v>
+        <v>968876813</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B16" t="str">
-        <v>Nguyễn Tuấn Cường</v>
+        <v>Nguyễn Ngọc Khôi</v>
       </c>
       <c r="C16" s="1">
-        <v>14537</v>
+        <v>103806</v>
       </c>
       <c r="D16" s="1">
-        <v>NaN</v>
+        <v>849404807</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>ttc</v>
+        <v>41</v>
       </c>
       <c r="B17" t="str">
-        <v>Trần Thanh Cường</v>
+        <v>Phạm Công Chánh</v>
       </c>
       <c r="C17" s="1">
-        <v>606</v>
+        <v>57567</v>
       </c>
       <c r="D17" s="1">
-        <v>NaN</v>
+        <v>848530790</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B18" t="str">
-        <v>Nguyễn Thành Đăng</v>
+        <v>Phùng Trọng Kiên</v>
       </c>
       <c r="C18" s="1">
-        <v>19547</v>
+        <v>133553</v>
       </c>
       <c r="D18" s="1">
-        <v>NaN</v>
+        <v>799122833</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="B19" t="str">
-        <v>Đoàn Thị Ngọc Đào</v>
+        <v>Nguyễn văn Hưng</v>
       </c>
       <c r="C19" s="1">
-        <v>45576</v>
+        <v>150627</v>
       </c>
       <c r="D19" s="1">
-        <v>NaN</v>
+        <v>795896005</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="B20" t="str">
-        <v>Trần Thị Diễm</v>
+        <v>Bùi Kim Dung</v>
       </c>
       <c r="C20" s="1">
-        <v>88793</v>
+        <v>114700</v>
       </c>
       <c r="D20" s="1">
-        <v>NaN</v>
+        <v>767343513</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>nlđ</v>
+        <v>60</v>
       </c>
       <c r="B21" t="str">
-        <v>Nguyễn Lan Đình</v>
+        <v>Trương Công Thành</v>
       </c>
       <c r="C21" s="1">
-        <v>2453</v>
+        <v>103083</v>
       </c>
       <c r="D21" s="1">
-        <v>NaN</v>
+        <v>743968648</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="B22" t="str">
-        <v>Trần Chí Đủ</v>
+        <v>Lý Văn Phái</v>
       </c>
       <c r="C22" s="1">
-        <v>20354</v>
+        <v>113837</v>
       </c>
       <c r="D22" s="1">
-        <v>NaN</v>
+        <v>739843175</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
-        <v>Hồ Tấn Đạt</v>
+        <v>Nguyễn Thị Hồng Anh</v>
       </c>
       <c r="C23" s="1">
-        <v>153995</v>
+        <v>106952</v>
       </c>
       <c r="D23" s="1">
-        <v>NaN</v>
+        <v>737544205</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>btkd</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
-        <v>Bùi Thị Kiều Diễm</v>
+        <v>Bùi Bỉnh Huân</v>
       </c>
       <c r="C24" s="1">
-        <v>210</v>
+        <v>100906</v>
       </c>
       <c r="D24" s="1">
-        <v>NaN</v>
+        <v>707434593</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B25" t="str">
-        <v>Huỳnh Hoàng Điệp</v>
+        <v>Võ Trọng Thịnh</v>
       </c>
       <c r="C25" s="1">
-        <v>29414</v>
+        <v>110609</v>
       </c>
       <c r="D25" s="1">
-        <v>NaN</v>
+        <v>676087415</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B26" t="str">
-        <v>Huỳnh Đức Thục Đoan</v>
+        <v>Dương Xuân Tùng</v>
       </c>
       <c r="C26" s="1">
-        <v>34398</v>
+        <v>54533</v>
       </c>
       <c r="D26" s="1">
-        <v>NaN</v>
+        <v>638701140</v>
       </c>
       <c r="E26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="B27" t="str">
-        <v>Ngô Minh Đức</v>
+        <v>Nguyễn Đăng Sảng</v>
       </c>
       <c r="C27" s="1">
-        <v>86979</v>
+        <v>81075</v>
       </c>
       <c r="D27" s="1">
-        <v>NaN</v>
+        <v>569408580</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="B28" t="str">
-        <v>Bùi Kim Dung</v>
+        <v>Đặng Bữu Thất</v>
       </c>
       <c r="C28" s="1">
-        <v>128147</v>
+        <v>66937</v>
       </c>
       <c r="D28" s="1">
-        <v>NaN</v>
+        <v>548032240</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>205</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Trần Thị Diễm</v>
+      </c>
+      <c r="C29" s="1">
+        <v>69510</v>
+      </c>
+      <c r="D29" s="1">
+        <v>536138240</v>
+      </c>
+      <c r="E29">
         <v>28</v>
-      </c>
-      <c r="B29" t="str">
-        <v>Ngô Thị Lệ Dung</v>
-      </c>
-      <c r="C29" s="1">
-        <v>21868</v>
-      </c>
-      <c r="D29" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E29">
-        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B30" t="str">
-        <v>Nguyễn Tấn Dũng</v>
+        <v>Trần Thị Tố Hoa</v>
       </c>
       <c r="C30" s="1">
-        <v>34569</v>
+        <v>82978</v>
       </c>
       <c r="D30" s="1">
-        <v>NaN</v>
+        <v>515910435</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B31" t="str">
-        <v>Trần Minh Đúng</v>
+        <v>Phạm Thiện Thông</v>
       </c>
       <c r="C31" s="1">
-        <v>4114</v>
+        <v>83824</v>
       </c>
       <c r="D31" s="1">
-        <v>NaN</v>
+        <v>514701074</v>
       </c>
       <c r="E31">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="B32" t="str">
-        <v>Bùi Như Giang</v>
+        <v>Huỳnh Thắng Toàn</v>
       </c>
       <c r="C32" s="1">
-        <v>306</v>
+        <v>62113</v>
       </c>
       <c r="D32" s="1">
-        <v>NaN</v>
+        <v>468146720</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="B33" t="str">
-        <v>Đỗ Thu Hằng</v>
+        <v>Ngô Minh Đức</v>
       </c>
       <c r="C33" s="1">
-        <v>5753</v>
+        <v>78238</v>
       </c>
       <c r="D33" s="1">
-        <v>NaN</v>
+        <v>413083049</v>
       </c>
       <c r="E33">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>nth</v>
+        <v>75</v>
       </c>
       <c r="B34" t="str">
-        <v>Nguyễn Thị Hậu</v>
+        <v>Nguyễn Thy Khuê</v>
       </c>
       <c r="C34" s="1">
-        <v>91</v>
+        <v>60165</v>
       </c>
       <c r="D34" s="1">
-        <v>NaN</v>
+        <v>404640615</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>bđh</v>
+        <v>87</v>
       </c>
       <c r="B35" t="str">
-        <v>Bùi Đức Hiền</v>
+        <v>Lê Trọng Quý</v>
       </c>
       <c r="C35" s="1">
-        <v>45</v>
+        <v>47588</v>
       </c>
       <c r="D35" s="1">
-        <v>NaN</v>
+        <v>382526165</v>
       </c>
       <c r="E35">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>Nguyễn Văn Hiền</v>
+        <v>Lư Hoàng Vũ</v>
       </c>
       <c r="C36" s="1">
-        <v>490282</v>
+        <v>53727</v>
       </c>
       <c r="D36" s="1">
-        <v>NaN</v>
+        <v>374849565</v>
       </c>
       <c r="E36">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="B37" t="str">
-        <v>Lê Tuyết Hoa</v>
+        <v>Đoàn Thị Ngọc Đào</v>
       </c>
       <c r="C37" s="1">
-        <v>2176</v>
+        <v>49961</v>
       </c>
       <c r="D37" s="1">
-        <v>NaN</v>
+        <v>374775190</v>
       </c>
       <c r="E37">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="B38" t="str">
-        <v>Nguyễn Thị Xuân Hoa</v>
+        <v>Trương Hoàng Anh Thư</v>
       </c>
       <c r="C38" s="1">
-        <v>10675</v>
+        <v>50720</v>
       </c>
       <c r="D38" s="1">
-        <v>NaN</v>
+        <v>365817220</v>
       </c>
       <c r="E38">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" t="str">
-        <v>Trần Thị Tố Hoa</v>
+        <v>Mã Nguyễn Minh Tùng</v>
       </c>
       <c r="C39" s="1">
-        <v>108226</v>
+        <v>49047</v>
       </c>
       <c r="D39" s="1">
-        <v>NaN</v>
+        <v>360920595</v>
       </c>
       <c r="E39">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B40" t="str">
-        <v>Nguyễn Hữu Hoàn</v>
+        <v>Nguyễn Tuyết Vân</v>
       </c>
       <c r="C40" s="1">
-        <v>10678</v>
+        <v>55285</v>
       </c>
       <c r="D40" s="1">
-        <v>NaN</v>
+        <v>329223680</v>
       </c>
       <c r="E40">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v>42</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Đinh Quyết Tâm</v>
+      </c>
+      <c r="C41" s="1">
+        <v>28006</v>
+      </c>
+      <c r="D41" s="1">
+        <v>327145961</v>
+      </c>
+      <c r="E41">
         <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <v>Phan Hữu Bội Hoàn</v>
-      </c>
-      <c r="C41" s="1">
-        <v>110862</v>
-      </c>
-      <c r="D41" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E41">
-        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B42" t="str">
-        <v>Trương Thị Mỹ Hoàng</v>
+        <v>Lê Đình Vĩnh Phúc</v>
       </c>
       <c r="C42" s="1">
-        <v>4734</v>
+        <v>35238</v>
       </c>
       <c r="D42" s="1">
-        <v>NaN</v>
+        <v>316776985</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>vtkh</v>
+        <v>177</v>
       </c>
       <c r="B43" t="str">
-        <v>Võ Thị Kim Hoàng</v>
+        <v>Huỳnh Lộc Sơn</v>
       </c>
       <c r="C43" s="1">
-        <v>20</v>
+        <v>37592</v>
       </c>
       <c r="D43" s="1">
-        <v>NaN</v>
+        <v>312380060</v>
       </c>
       <c r="E43">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B44" t="str">
-        <v>Nguyễn Thị Ánh Hồng</v>
+        <v>Nguyễn Hoàng Phước</v>
       </c>
       <c r="C44" s="1">
-        <v>157548</v>
+        <v>48319</v>
       </c>
       <c r="D44" s="1">
-        <v>NaN</v>
+        <v>305182010</v>
       </c>
       <c r="E44">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ntth</v>
+        <v>59</v>
       </c>
       <c r="B45" t="str">
-        <v>Nguyễn Thị Tuyết Hồng</v>
+        <v>Nguyễn Xuân Trình</v>
       </c>
       <c r="C45" s="1">
-        <v>220</v>
+        <v>56589</v>
       </c>
       <c r="D45" s="1">
-        <v>NaN</v>
+        <v>299234340</v>
       </c>
       <c r="E45">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B46" t="str">
-        <v>Bùi Bỉnh Huân</v>
+        <v>Bùi Thị Vân Hương</v>
       </c>
       <c r="C46" s="1">
-        <v>101679</v>
+        <v>45917</v>
       </c>
       <c r="D46" s="1">
-        <v>NaN</v>
+        <v>294849490</v>
       </c>
       <c r="E46">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>nth</v>
+        <v>51</v>
       </c>
       <c r="B47" t="str">
-        <v>Ngô Tấn Hùng</v>
+        <v>Nguyễn Thy Anh</v>
       </c>
       <c r="C47" s="1">
-        <v>84</v>
+        <v>45306</v>
       </c>
       <c r="D47" s="1">
-        <v>NaN</v>
+        <v>273806808</v>
       </c>
       <c r="E47">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B48" t="str">
-        <v>Nguyễn văn Hưng</v>
+        <v>Nguyễn Thị Kim Thuý</v>
       </c>
       <c r="C48" s="1">
-        <v>187588</v>
+        <v>44244</v>
       </c>
       <c r="D48" s="1">
-        <v>NaN</v>
+        <v>266489062</v>
       </c>
       <c r="E48">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B49" t="str">
-        <v>Trần Duy Hưng</v>
+        <v>Phan Xuân Trung</v>
       </c>
       <c r="C49" s="1">
-        <v>13115</v>
+        <v>39310</v>
       </c>
       <c r="D49" s="1">
-        <v>NaN</v>
+        <v>265714775</v>
       </c>
       <c r="E49">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>140</v>
-      </c>
-      <c r="B50" t="str">
-        <v>Trần Tấn Hưng</v>
+        <v>Bán lẻ</v>
       </c>
       <c r="C50" s="1">
-        <v>21268</v>
+        <v>27697</v>
       </c>
       <c r="D50" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E50">
-        <v>48</v>
+        <v>259235890</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B51" t="str">
-        <v>Bùi Thị Vân Hương</v>
+        <v>Huỳnh Đức Thục Đoan</v>
       </c>
       <c r="C51" s="1">
-        <v>83674</v>
+        <v>30271</v>
       </c>
       <c r="D51" s="1">
-        <v>NaN</v>
+        <v>255589305</v>
       </c>
       <c r="E51">
         <v>49</v>
@@ -1254,16 +1254,16 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B52" t="str">
-        <v>Nguyễn Thị Kim Hường</v>
+        <v>Nguyễn Thuý Nga</v>
       </c>
       <c r="C52" s="1">
-        <v>10148</v>
+        <v>40626</v>
       </c>
       <c r="D52" s="1">
-        <v>NaN</v>
+        <v>252072075</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>ntlh</v>
+        <v>68</v>
       </c>
       <c r="B53" t="str">
-        <v>Nguyễn Thị Lan Hương</v>
+        <v>Nguyễn Minh Thiền</v>
       </c>
       <c r="C53" s="1">
-        <v>248</v>
+        <v>19642</v>
       </c>
       <c r="D53" s="1">
-        <v>NaN</v>
+        <v>239009762</v>
       </c>
       <c r="E53">
         <v>51</v>
@@ -1288,16 +1288,16 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B54" t="str">
-        <v>Vũ Thị Thanh Huyền</v>
+        <v>Dương Phi Sơn</v>
       </c>
       <c r="C54" s="1">
-        <v>31759</v>
+        <v>38344</v>
       </c>
       <c r="D54" s="1">
-        <v>NaN</v>
+        <v>234032285</v>
       </c>
       <c r="E54">
         <v>52</v>
@@ -1305,16 +1305,16 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B55" t="str">
-        <v>Đỗ Ngọc Anh Khoa</v>
+        <v>Phạm Huỳnh Bảo Trân</v>
       </c>
       <c r="C55" s="1">
-        <v>3220</v>
+        <v>31300</v>
       </c>
       <c r="D55" s="1">
-        <v>NaN</v>
+        <v>225916015</v>
       </c>
       <c r="E55">
         <v>53</v>
@@ -1322,16 +1322,16 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B56" t="str">
-        <v>Nguyễn Ngọc Khôi</v>
+        <v>Nguyễn Kỳ Chân</v>
       </c>
       <c r="C56" s="1">
-        <v>118319</v>
+        <v>22547</v>
       </c>
       <c r="D56" s="1">
-        <v>NaN</v>
+        <v>219996715</v>
       </c>
       <c r="E56">
         <v>54</v>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B57" t="str">
-        <v>Lê Tuấn Khuê</v>
+        <v>Nguyễn Thị Lý</v>
       </c>
       <c r="C57" s="1">
-        <v>8996</v>
+        <v>27758</v>
       </c>
       <c r="D57" s="1">
-        <v>NaN</v>
+        <v>218925996</v>
       </c>
       <c r="E57">
         <v>55</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B58" t="str">
-        <v>Nguyễn Thy Khuê</v>
+        <v>Nguyễn Thị Xuân Hoa</v>
       </c>
       <c r="C58" s="1">
-        <v>68280</v>
+        <v>9679</v>
       </c>
       <c r="D58" s="1">
-        <v>NaN</v>
+        <v>215602235</v>
       </c>
       <c r="E58">
         <v>56</v>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>bhl</v>
+        <v>144</v>
       </c>
       <c r="B59" t="str">
-        <v>Bùi Hồng Lĩnh</v>
+        <v>Dương Đăng Ngọc Phương</v>
       </c>
       <c r="C59" s="1">
-        <v>4251</v>
+        <v>8986</v>
       </c>
       <c r="D59" s="1">
-        <v>NaN</v>
+        <v>214009785</v>
       </c>
       <c r="E59">
         <v>57</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>đnk</v>
+        <v>206</v>
       </c>
       <c r="B60" t="str">
-        <v>Đăng Nguyên Khôi</v>
+        <v>Trương Tuấn Nhựt</v>
       </c>
       <c r="C60" s="1">
-        <v>4662</v>
+        <v>17816</v>
       </c>
       <c r="D60" s="1">
-        <v>NaN</v>
+        <v>213993180</v>
       </c>
       <c r="E60">
         <v>58</v>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>ntk</v>
+        <v>176</v>
       </c>
       <c r="B61" t="str">
-        <v>Nguyễn Trung Kiên</v>
+        <v>Lê Ngọc Hồng Nhung</v>
       </c>
       <c r="C61" s="1">
-        <v>259</v>
+        <v>47283</v>
       </c>
       <c r="D61" s="1">
-        <v>NaN</v>
+        <v>211022870</v>
       </c>
       <c r="E61">
         <v>59</v>
@@ -1424,16 +1424,16 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B62" t="str">
-        <v>Phùng Trọng Kiên</v>
+        <v>Vũ Bích Đoan Trang</v>
       </c>
       <c r="C62" s="1">
-        <v>159191</v>
+        <v>39179</v>
       </c>
       <c r="D62" s="1">
-        <v>NaN</v>
+        <v>210664565</v>
       </c>
       <c r="E62">
         <v>60</v>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B63" t="str">
-        <v>Bùi Văn Kiệt</v>
+        <v>Nguyễn Tấn Dũng</v>
       </c>
       <c r="C63" s="1">
-        <v>2581</v>
+        <v>24216</v>
       </c>
       <c r="D63" s="1">
-        <v>NaN</v>
+        <v>207957835</v>
       </c>
       <c r="E63">
         <v>61</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="B64" t="str">
-        <v>Mai Huỳnh Lạc</v>
+        <v>Lê Hữu Quỳnh Trang</v>
       </c>
       <c r="C64" s="1">
-        <v>9352</v>
+        <v>38246</v>
       </c>
       <c r="D64" s="1">
-        <v>NaN</v>
+        <v>207634862</v>
       </c>
       <c r="E64">
         <v>62</v>
@@ -1475,16 +1475,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B65" t="str">
-        <v>Lý Thanh Lãm</v>
+        <v>Đặng Văn Mon</v>
       </c>
       <c r="C65" s="1">
-        <v>273848</v>
+        <v>32981</v>
       </c>
       <c r="D65" s="1">
-        <v>NaN</v>
+        <v>206760740</v>
       </c>
       <c r="E65">
         <v>63</v>
@@ -1492,16 +1492,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B66" t="str">
-        <v>Trương Ngọc Lễ</v>
+        <v>Mai Quang Vĩnh Long</v>
       </c>
       <c r="C66" s="1">
-        <v>1500</v>
+        <v>41906</v>
       </c>
       <c r="D66" s="1">
-        <v>NaN</v>
+        <v>200422330</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B67" t="str">
-        <v>Tạ Kim Liên</v>
+        <v>Huỳnh Hoàng Điệp</v>
       </c>
       <c r="C67" s="1">
-        <v>430</v>
+        <v>22296</v>
       </c>
       <c r="D67" s="1">
-        <v>NaN</v>
+        <v>184482891</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="B68" t="str">
-        <v>Huỳnh Thị Liễu</v>
+        <v>Võ Hiếu Thành</v>
       </c>
       <c r="C68" s="1">
-        <v>180</v>
+        <v>26024</v>
       </c>
       <c r="D68" s="1">
-        <v>NaN</v>
+        <v>180016642</v>
       </c>
       <c r="E68">
         <v>66</v>
@@ -1543,16 +1543,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B69" t="str">
-        <v>Lê Hữu Linh</v>
+        <v>Vũ Thị Thanh Huyền</v>
       </c>
       <c r="C69" s="1">
-        <v>14095</v>
+        <v>20639</v>
       </c>
       <c r="D69" s="1">
-        <v>NaN</v>
+        <v>173659490</v>
       </c>
       <c r="E69">
         <v>67</v>
@@ -1560,16 +1560,16 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B70" t="str">
-        <v>Nguyễn Đình Linh</v>
+        <v>Trần Thị Hồng Vân</v>
       </c>
       <c r="C70" s="1">
-        <v>240964</v>
+        <v>27864</v>
       </c>
       <c r="D70" s="1">
-        <v>NaN</v>
+        <v>170232701</v>
       </c>
       <c r="E70">
         <v>68</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>vtl</v>
+        <v>140</v>
       </c>
       <c r="B71" t="str">
-        <v>Võ Thị Loan</v>
+        <v>Trần Tấn Hưng</v>
       </c>
       <c r="C71" s="1">
-        <v>85</v>
+        <v>20346</v>
       </c>
       <c r="D71" s="1">
-        <v>NaN</v>
+        <v>168692632</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -1594,16 +1594,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B72" t="str">
-        <v>Mai Quang Vĩnh Long</v>
+        <v>Nguyễn Thị Kim Uyên</v>
       </c>
       <c r="C72" s="1">
-        <v>64637</v>
+        <v>16433</v>
       </c>
       <c r="D72" s="1">
-        <v>NaN</v>
+        <v>166483670</v>
       </c>
       <c r="E72">
         <v>70</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>Huỳnh Trác Luân</v>
+        <v>Lê Hữu Linh</v>
       </c>
       <c r="C73" s="1">
-        <v>416432</v>
+        <v>17218</v>
       </c>
       <c r="D73" s="1">
-        <v>NaN</v>
+        <v>162146364</v>
       </c>
       <c r="E73">
         <v>71</v>
@@ -1628,16 +1628,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="B74" t="str">
-        <v>Lê Thông Lưu</v>
+        <v>Nguyễn Thị Ngọc Trâm</v>
       </c>
       <c r="C74" s="1">
-        <v>12683</v>
+        <v>27451</v>
       </c>
       <c r="D74" s="1">
-        <v>NaN</v>
+        <v>159133035</v>
       </c>
       <c r="E74">
         <v>72</v>
@@ -1645,16 +1645,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>nml</v>
+        <v>216</v>
       </c>
       <c r="B75" t="str">
-        <v>Ngô Minh Lý</v>
+        <v>Nguyễn Thi Phú</v>
       </c>
       <c r="C75" s="1">
-        <v>15792</v>
+        <v>20203</v>
       </c>
       <c r="D75" s="1">
-        <v>NaN</v>
+        <v>153912456</v>
       </c>
       <c r="E75">
         <v>73</v>
@@ -1662,16 +1662,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B76" t="str">
-        <v>Nguyễn Thị Lý</v>
+        <v>Trần Duy Hưng</v>
       </c>
       <c r="C76" s="1">
-        <v>35930</v>
+        <v>14683</v>
       </c>
       <c r="D76" s="1">
-        <v>NaN</v>
+        <v>152871830</v>
       </c>
       <c r="E76">
         <v>74</v>
@@ -1679,16 +1679,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B77" t="str">
-        <v>Nguyễn Thị Tuyết Mai</v>
+        <v>Lê Thị Hữu Phận</v>
       </c>
       <c r="C77" s="1">
-        <v>38258</v>
+        <v>15302</v>
       </c>
       <c r="D77" s="1">
-        <v>NaN</v>
+        <v>148965420</v>
       </c>
       <c r="E77">
         <v>75</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B78" t="str">
-        <v>Tôn Nữ Sao Mai</v>
+        <v>Trần Chí Đủ</v>
       </c>
       <c r="C78" s="1">
-        <v>17922</v>
+        <v>21692</v>
       </c>
       <c r="D78" s="1">
-        <v>NaN</v>
+        <v>146261194</v>
       </c>
       <c r="E78">
         <v>76</v>
@@ -1713,16 +1713,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B79" t="str">
-        <v>Đặng Văn Mon</v>
+        <v>Phan Anh Tuấn</v>
       </c>
       <c r="C79" s="1">
-        <v>38996</v>
+        <v>13241</v>
       </c>
       <c r="D79" s="1">
-        <v>NaN</v>
+        <v>142326785</v>
       </c>
       <c r="E79">
         <v>77</v>
@@ -1730,16 +1730,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B80" t="str">
-        <v>Trần Văn Nam</v>
+        <v>Phạm Võ Minh Thắng</v>
       </c>
       <c r="C80" s="1">
-        <v>187482</v>
+        <v>13813</v>
       </c>
       <c r="D80" s="1">
-        <v>NaN</v>
+        <v>139471330</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>89</v>
+        <v>nml</v>
       </c>
       <c r="B81" t="str">
-        <v>Dương Quang Huỳnh Nga</v>
+        <v>Ngô Minh Lý</v>
       </c>
       <c r="C81" s="1">
-        <v>1659</v>
+        <v>12800</v>
       </c>
       <c r="D81" s="1">
-        <v>NaN</v>
+        <v>133923350</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -1764,16 +1764,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="str">
-        <v>Nguyễn Thuý Nga</v>
+        <v>Nguyễn Thị Tuyết Mai</v>
       </c>
       <c r="C82" s="1">
-        <v>53521</v>
+        <v>22350</v>
       </c>
       <c r="D82" s="1">
-        <v>NaN</v>
+        <v>130027320</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B83" t="str">
-        <v>Võ Nguyễn Thành Nhân</v>
+        <v>Nguyễn Kim Thái</v>
       </c>
       <c r="C83" s="1">
-        <v>8101</v>
+        <v>24421</v>
       </c>
       <c r="D83" s="1">
-        <v>NaN</v>
+        <v>129415888</v>
       </c>
       <c r="E83">
         <v>81</v>
@@ -1798,16 +1798,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B84" t="str">
-        <v>Lê Ngọc Hồng Nhung</v>
+        <v>Neang Si PhátS</v>
       </c>
       <c r="C84" s="1">
-        <v>77251</v>
+        <v>4894</v>
       </c>
       <c r="D84" s="1">
-        <v>NaN</v>
+        <v>125141285</v>
       </c>
       <c r="E84">
         <v>82</v>
@@ -1815,16 +1815,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="B85" t="str">
-        <v>Trương Tuấn Nhựt</v>
+        <v>Hoàng Tường</v>
       </c>
       <c r="C85" s="1">
-        <v>18854</v>
+        <v>19968</v>
       </c>
       <c r="D85" s="1">
-        <v>NaN</v>
+        <v>122875935</v>
       </c>
       <c r="E85">
         <v>83</v>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B86" t="str">
-        <v>Lý Văn Phái</v>
+        <v>Tôn Nữ Sao Mai</v>
       </c>
       <c r="C86" s="1">
-        <v>125271</v>
+        <v>17036</v>
       </c>
       <c r="D86" s="1">
-        <v>NaN</v>
+        <v>122261075</v>
       </c>
       <c r="E86">
         <v>84</v>
@@ -1849,16 +1849,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B87" t="str">
-        <v>Lê Thị Hữu Phận</v>
+        <v>Lê Thông Lưu</v>
       </c>
       <c r="C87" s="1">
-        <v>14781</v>
+        <v>9900</v>
       </c>
       <c r="D87" s="1">
-        <v>NaN</v>
+        <v>115815260</v>
       </c>
       <c r="E87">
         <v>85</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B88" t="str">
-        <v>Neang Si PhátS</v>
+        <v>Dương Quang Triết</v>
       </c>
       <c r="C88" s="1">
-        <v>3884</v>
+        <v>15973</v>
       </c>
       <c r="D88" s="1">
-        <v>NaN</v>
+        <v>109275605</v>
       </c>
       <c r="E88">
         <v>86</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="B89" t="str">
-        <v>Lê Thị Minh Phú</v>
+        <v>Lê Tuấn Khuê</v>
       </c>
       <c r="C89" s="1">
-        <v>18528</v>
+        <v>9100</v>
       </c>
       <c r="D89" s="1">
-        <v>NaN</v>
+        <v>105635252</v>
       </c>
       <c r="E89">
         <v>87</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B90" t="str">
-        <v>Nguyễn Thi Phú</v>
+        <v>Phan Nguyên Thiên Châu</v>
       </c>
       <c r="C90" s="1">
-        <v>35934</v>
+        <v>12818</v>
       </c>
       <c r="D90" s="1">
-        <v>NaN</v>
+        <v>98118540</v>
       </c>
       <c r="E90">
         <v>88</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B91" t="str">
-        <v>Đặng Vĩnh Phúc</v>
+        <v>Ngô Thị Lệ Dung</v>
       </c>
       <c r="C91" s="1">
-        <v>10155</v>
+        <v>13651</v>
       </c>
       <c r="D91" s="1">
-        <v>NaN</v>
+        <v>87167885</v>
       </c>
       <c r="E91">
         <v>89</v>
@@ -1934,16 +1934,16 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="B92" t="str">
-        <v>Lê Đình Vĩnh Phúc</v>
+        <v>Phạm Thế Anh</v>
       </c>
       <c r="C92" s="1">
-        <v>32327</v>
+        <v>7870</v>
       </c>
       <c r="D92" s="1">
-        <v>NaN</v>
+        <v>86724350</v>
       </c>
       <c r="E92">
         <v>90</v>
@@ -1951,16 +1951,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B93" t="str">
-        <v>Nguyễn Hoàng Phước</v>
+        <v>Nguyễn Hữu Hoàn</v>
       </c>
       <c r="C93" s="1">
-        <v>51859</v>
+        <v>10744</v>
       </c>
       <c r="D93" s="1">
-        <v>NaN</v>
+        <v>86457230</v>
       </c>
       <c r="E93">
         <v>91</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>cnmp</v>
+        <v>11</v>
       </c>
       <c r="B94" t="str">
-        <v>Châu Ngọc Minh Phương</v>
+        <v>Nguyễn Thành Đăng</v>
       </c>
       <c r="C94" s="1">
-        <v>622</v>
+        <v>11140</v>
       </c>
       <c r="D94" s="1">
-        <v>NaN</v>
+        <v>85722365</v>
       </c>
       <c r="E94">
         <v>92</v>
@@ -1985,16 +1985,16 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B95" t="str">
-        <v>Dương Đăng Ngọc Phương</v>
+        <v>Bùi Quang Vinh</v>
       </c>
       <c r="C95" s="1">
-        <v>10946</v>
+        <v>12767</v>
       </c>
       <c r="D95" s="1">
-        <v>NaN</v>
+        <v>85568885</v>
       </c>
       <c r="E95">
         <v>93</v>
@@ -2002,16 +2002,16 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>nhq</v>
+        <v>165</v>
       </c>
       <c r="B96" t="str">
-        <v>Nguyễn Hoàng Quân</v>
+        <v>Vũ Tu Thân</v>
       </c>
       <c r="C96" s="1">
-        <v>725</v>
+        <v>19801</v>
       </c>
       <c r="D96" s="1">
-        <v>NaN</v>
+        <v>85546650</v>
       </c>
       <c r="E96">
         <v>94</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B97" t="str">
-        <v>Lê Trọng Quý</v>
+        <v>Nguyễn An</v>
       </c>
       <c r="C97" s="1">
-        <v>58264</v>
+        <v>10298</v>
       </c>
       <c r="D97" s="1">
-        <v>NaN</v>
+        <v>84521423</v>
       </c>
       <c r="E97">
         <v>95</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="B98" t="str">
-        <v>Nguyễn Đăng Sảng</v>
+        <v>Lê Thị Minh Phú</v>
       </c>
       <c r="C98" s="1">
-        <v>103873</v>
+        <v>15866</v>
       </c>
       <c r="D98" s="1">
-        <v>NaN</v>
+        <v>79920975</v>
       </c>
       <c r="E98">
         <v>96</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="B99" t="str">
-        <v>Nguyễn Thị Kim Sáng</v>
+        <v>Trương Đoàn Chí Trung</v>
       </c>
       <c r="C99" s="1">
-        <v>315</v>
+        <v>6876</v>
       </c>
       <c r="D99" s="1">
-        <v>NaN</v>
+        <v>71447505</v>
       </c>
       <c r="E99">
         <v>97</v>
@@ -2070,16 +2070,16 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B100" t="str">
-        <v>Dương Phi Sơn</v>
+        <v>Lê Thị Thuý An</v>
       </c>
       <c r="C100" s="1">
-        <v>61908</v>
+        <v>11351</v>
       </c>
       <c r="D100" s="1">
-        <v>NaN</v>
+        <v>68818540</v>
       </c>
       <c r="E100">
         <v>98</v>
@@ -2087,16 +2087,16 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="B101" t="str">
-        <v>Huỳnh Lộc Sơn</v>
+        <v>Đặng Vĩnh Phúc</v>
       </c>
       <c r="C101" s="1">
-        <v>41348</v>
+        <v>8080</v>
       </c>
       <c r="D101" s="1">
-        <v>NaN</v>
+        <v>63217225</v>
       </c>
       <c r="E101">
         <v>99</v>
@@ -2104,16 +2104,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B102" t="str">
-        <v>Đinh Quyết Tâm</v>
+        <v>Nguyễn Thị Kim Hường</v>
       </c>
       <c r="C102" s="1">
-        <v>31422</v>
+        <v>7820</v>
       </c>
       <c r="D102" s="1">
-        <v>NaN</v>
+        <v>57014143</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="B103" t="str">
-        <v>Nguyễn Kim Thái</v>
+        <v>Dương Ngọc Thành</v>
       </c>
       <c r="C103" s="1">
-        <v>39525</v>
+        <v>6016</v>
       </c>
       <c r="D103" s="1">
-        <v>NaN</v>
+        <v>53627440</v>
       </c>
       <c r="E103">
         <v>101</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B104" t="str">
-        <v>Vũ Tu Thân</v>
+        <v>Võ Nguyễn Thành Nhân</v>
       </c>
       <c r="C104" s="1">
-        <v>16904</v>
+        <v>7916</v>
       </c>
       <c r="D104" s="1">
-        <v>NaN</v>
+        <v>52993485</v>
       </c>
       <c r="E104">
         <v>102</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>1</v>
+        <v>đnk</v>
       </c>
       <c r="B105" t="str">
-        <v>Phạm Võ Minh Thắng</v>
+        <v>Đăng Nguyên Khôi</v>
       </c>
       <c r="C105" s="1">
-        <v>13074</v>
+        <v>3562</v>
       </c>
       <c r="D105" s="1">
-        <v>NaN</v>
+        <v>42843420</v>
       </c>
       <c r="E105">
         <v>103</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="B106" t="str">
-        <v>Dương Ngọc Thành</v>
+        <v>Trương Ngọc Lễ</v>
       </c>
       <c r="C106" s="1">
-        <v>7716</v>
+        <v>3054</v>
       </c>
       <c r="D106" s="1">
-        <v>NaN</v>
+        <v>39620760</v>
       </c>
       <c r="E106">
         <v>104</v>
@@ -2189,16 +2189,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="B107" t="str">
-        <v>Trương Công Thành</v>
+        <v>Mai Huỳnh Lạc</v>
       </c>
       <c r="C107" s="1">
-        <v>114386</v>
+        <v>3886</v>
       </c>
       <c r="D107" s="1">
-        <v>NaN</v>
+        <v>35684155</v>
       </c>
       <c r="E107">
         <v>105</v>
@@ -2206,16 +2206,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>34</v>
+        <v>ntth</v>
       </c>
       <c r="B108" t="str">
-        <v>Võ Hiếu Thành</v>
+        <v>Nguyễn Thị Thu Hà</v>
       </c>
       <c r="C108" s="1">
-        <v>28452</v>
+        <v>4031</v>
       </c>
       <c r="D108" s="1">
-        <v>NaN</v>
+        <v>34716795</v>
       </c>
       <c r="E108">
         <v>106</v>
@@ -2223,16 +2223,16 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>215</v>
+        <v>nlđ</v>
       </c>
       <c r="B109" t="str">
-        <v>Nguyễn Thị Thu Thảo</v>
+        <v>Nguyễn Lan Đình</v>
       </c>
       <c r="C109" s="1">
-        <v>2830</v>
+        <v>3283</v>
       </c>
       <c r="D109" s="1">
-        <v>NaN</v>
+        <v>33551040</v>
       </c>
       <c r="E109">
         <v>107</v>
@@ -2240,16 +2240,16 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B110" t="str">
-        <v>Võ Nguyễn Hương Thảo</v>
+        <v>Nại Thị Hương Thoang</v>
       </c>
       <c r="C110" s="1">
-        <v>1134</v>
+        <v>4692</v>
       </c>
       <c r="D110" s="1">
-        <v>NaN</v>
+        <v>31676900</v>
       </c>
       <c r="E110">
         <v>108</v>
@@ -2257,16 +2257,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>21</v>
+        <v>nht</v>
       </c>
       <c r="B111" t="str">
-        <v>Đặng Bữu Thất</v>
+        <v>Nguyễn Hoài Thu</v>
       </c>
       <c r="C111" s="1">
-        <v>79600</v>
+        <v>6255</v>
       </c>
       <c r="D111" s="1">
-        <v>NaN</v>
+        <v>30196326</v>
       </c>
       <c r="E111">
         <v>109</v>
@@ -2274,16 +2274,16 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B112" t="str">
-        <v>Nguyễn Minh Thiền</v>
+        <v>Nguyễn Tuấn Cường</v>
       </c>
       <c r="C112" s="1">
-        <v>19899</v>
+        <v>10320</v>
       </c>
       <c r="D112" s="1">
-        <v>NaN</v>
+        <v>29967825</v>
       </c>
       <c r="E112">
         <v>110</v>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="B113" t="str">
-        <v>Võ Trọng Thịnh</v>
+        <v>Đỗ Ngọc Anh Khoa</v>
       </c>
       <c r="C113" s="1">
-        <v>141406</v>
+        <v>3095</v>
       </c>
       <c r="D113" s="1">
-        <v>NaN</v>
+        <v>28357060</v>
       </c>
       <c r="E113">
         <v>111</v>
@@ -2308,16 +2308,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="B114" t="str">
-        <v>Vũ Hồng Thịnh</v>
+        <v>Trần Minh Đúng</v>
       </c>
       <c r="C114" s="1">
-        <v>2174</v>
+        <v>4965</v>
       </c>
       <c r="D114" s="1">
-        <v>NaN</v>
+        <v>27936590</v>
       </c>
       <c r="E114">
         <v>112</v>
@@ -2325,16 +2325,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B115" t="str">
-        <v>Nguyễn Linh Thoại</v>
+        <v>Đỗ Thu Hằng</v>
       </c>
       <c r="C115" s="1">
-        <v>311913</v>
+        <v>2591</v>
       </c>
       <c r="D115" s="1">
-        <v>NaN</v>
+        <v>24847875</v>
       </c>
       <c r="E115">
         <v>113</v>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B116" t="str">
-        <v>Nại Thị Hương Thoang</v>
+        <v>Trương Thị Mỹ Hoàng</v>
       </c>
       <c r="C116" s="1">
-        <v>3740</v>
+        <v>3409</v>
       </c>
       <c r="D116" s="1">
-        <v>NaN</v>
+        <v>23376900</v>
       </c>
       <c r="E116">
         <v>114</v>
@@ -2359,16 +2359,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B117" t="str">
-        <v>Phạm Thiện Thông</v>
+        <v>Dương Quang Huỳnh Nga</v>
       </c>
       <c r="C117" s="1">
-        <v>89779</v>
+        <v>3363</v>
       </c>
       <c r="D117" s="1">
-        <v>NaN</v>
+        <v>21904930</v>
       </c>
       <c r="E117">
         <v>115</v>
@@ -2376,16 +2376,16 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>nht</v>
+        <v>nnv</v>
       </c>
       <c r="B118" t="str">
-        <v>Nguyễn Hoài Thu</v>
+        <v>Nguyễn Nghiệp Văn</v>
       </c>
       <c r="C118" s="1">
-        <v>3905</v>
+        <v>2206</v>
       </c>
       <c r="D118" s="1">
-        <v>NaN</v>
+        <v>16572875</v>
       </c>
       <c r="E118">
         <v>116</v>
@@ -2393,16 +2393,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>108</v>
+        <v>bhl</v>
       </c>
       <c r="B119" t="str">
-        <v>Trương Hoàng Anh Thư</v>
+        <v>Bùi Hồng Lĩnh</v>
       </c>
       <c r="C119" s="1">
-        <v>88234</v>
+        <v>2911</v>
       </c>
       <c r="D119" s="1">
-        <v>NaN</v>
+        <v>16099600</v>
       </c>
       <c r="E119">
         <v>117</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>tqt</v>
+        <v>94</v>
       </c>
       <c r="B120" t="str">
-        <v>Trần Quang Thuận</v>
+        <v>Đoàn Thị Thanh Vy</v>
       </c>
       <c r="C120" s="1">
-        <v>971</v>
+        <v>1254</v>
       </c>
       <c r="D120" s="1">
-        <v>NaN</v>
+        <v>12996690</v>
       </c>
       <c r="E120">
         <v>118</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B121" t="str">
-        <v>Nguyễn Thị Kim Thuý</v>
+        <v>Vũ Hồng Thịnh</v>
       </c>
       <c r="C121" s="1">
-        <v>47688</v>
+        <v>1092</v>
       </c>
       <c r="D121" s="1">
-        <v>NaN</v>
+        <v>10793708</v>
       </c>
       <c r="E121">
         <v>119</v>
@@ -2444,16 +2444,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>57</v>
+        <v>tqt</v>
       </c>
       <c r="B122" t="str">
-        <v>Phạm Thị Thu Thuỷ</v>
+        <v>Trần Quang Thuận</v>
       </c>
       <c r="C122" s="1">
-        <v>274281</v>
+        <v>1670</v>
       </c>
       <c r="D122" s="1">
-        <v>NaN</v>
+        <v>10614260</v>
       </c>
       <c r="E122">
         <v>120</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B123" t="str">
-        <v>Lê Đình Tín</v>
+        <v>Lê Tuyết Hoa</v>
       </c>
       <c r="C123" s="1">
-        <v>243452</v>
+        <v>1815</v>
       </c>
       <c r="D123" s="1">
-        <v>NaN</v>
+        <v>9764710</v>
       </c>
       <c r="E123">
         <v>121</v>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="B124" t="str">
-        <v>Huỳnh Thắng Toàn</v>
+        <v>Nguyễn Thị Thu Thảo</v>
       </c>
       <c r="C124" s="1">
-        <v>61855</v>
+        <v>1581</v>
       </c>
       <c r="D124" s="1">
-        <v>NaN</v>
+        <v>9530250</v>
       </c>
       <c r="E124">
         <v>122</v>
@@ -2495,16 +2495,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>pct</v>
+        <v>93</v>
       </c>
       <c r="B125" t="str">
-        <v>Phạm Chí Toàn</v>
+        <v>Bùi Văn Kiệt</v>
       </c>
       <c r="C125" s="1">
-        <v>200</v>
+        <v>657</v>
       </c>
       <c r="D125" s="1">
-        <v>NaN</v>
+        <v>8522775</v>
       </c>
       <c r="E125">
         <v>123</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B126" t="str">
-        <v>Nguyễn Thị Ngọc Trâm</v>
+        <v>Võ Nguyễn Hương Thảo</v>
       </c>
       <c r="C126" s="1">
-        <v>22131</v>
+        <v>872</v>
       </c>
       <c r="D126" s="1">
-        <v>NaN</v>
+        <v>7136875</v>
       </c>
       <c r="E126">
         <v>124</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>119</v>
+        <v>nhq</v>
       </c>
       <c r="B127" t="str">
-        <v>Phạm Huỳnh Bảo Trân</v>
+        <v>Nguyễn Hoàng Quân</v>
       </c>
       <c r="C127" s="1">
-        <v>28220</v>
+        <v>367</v>
       </c>
       <c r="D127" s="1">
-        <v>NaN</v>
+        <v>6984150</v>
       </c>
       <c r="E127">
         <v>125</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>102</v>
+        <v>nth</v>
       </c>
       <c r="B128" t="str">
-        <v>Lê Hữu Quỳnh Trang</v>
+        <v>Ngô Tấn Hùng</v>
       </c>
       <c r="C128" s="1">
-        <v>53565</v>
+        <v>270</v>
       </c>
       <c r="D128" s="1">
-        <v>NaN</v>
+        <v>4897800</v>
       </c>
       <c r="E128">
         <v>126</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>ttt</v>
+        <v>cnmp</v>
       </c>
       <c r="B129" t="str">
-        <v>Trần Thùy Trang</v>
+        <v>Châu Ngọc Minh Phương</v>
       </c>
       <c r="C129" s="1">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="D129" s="1">
-        <v>NaN</v>
+        <v>3521640</v>
       </c>
       <c r="E129">
         <v>127</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>96</v>
+        <v>ttc</v>
       </c>
       <c r="B130" t="str">
-        <v>Vũ Bích Đoan Trang</v>
+        <v>Trần Thanh Cường</v>
       </c>
       <c r="C130" s="1">
-        <v>34065</v>
+        <v>722</v>
       </c>
       <c r="D130" s="1">
-        <v>NaN</v>
+        <v>2293050</v>
       </c>
       <c r="E130">
         <v>128</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="B131" t="str">
-        <v>Dương Quang Triết</v>
+        <v>Nguyễn Thị Kim Sáng</v>
       </c>
       <c r="C131" s="1">
-        <v>24120</v>
+        <v>425</v>
       </c>
       <c r="D131" s="1">
-        <v>NaN</v>
+        <v>2163570</v>
       </c>
       <c r="E131">
         <v>129</v>
@@ -2614,16 +2614,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>59</v>
+        <v>ptvb</v>
       </c>
       <c r="B132" t="str">
-        <v>Nguyễn Xuân Trình</v>
+        <v>Phan Thanh Việt Bình</v>
       </c>
       <c r="C132" s="1">
-        <v>54696</v>
+        <v>222</v>
       </c>
       <c r="D132" s="1">
-        <v>NaN</v>
+        <v>1752300</v>
       </c>
       <c r="E132">
         <v>130</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="B133" t="str">
-        <v>Phan Xuân Trung</v>
+        <v>Trần Anh Tuấn</v>
       </c>
       <c r="C133" s="1">
-        <v>37061</v>
+        <v>160</v>
       </c>
       <c r="D133" s="1">
-        <v>NaN</v>
+        <v>1355000</v>
       </c>
       <c r="E133">
         <v>131</v>
@@ -2648,16 +2648,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B134" t="str">
-        <v>Trương Đoàn Chí Trung</v>
+        <v>Tạ Kim Liên</v>
       </c>
       <c r="C134" s="1">
-        <v>7808</v>
+        <v>195</v>
       </c>
       <c r="D134" s="1">
-        <v>NaN</v>
+        <v>1324420</v>
       </c>
       <c r="E134">
         <v>132</v>
@@ -2665,16 +2665,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>66</v>
+        <v>ttla</v>
       </c>
       <c r="B135" t="str">
-        <v>Phan Anh Tuấn</v>
+        <v>Trần Thị Lan Anh</v>
       </c>
       <c r="C135" s="1">
-        <v>15015</v>
+        <v>95</v>
       </c>
       <c r="D135" s="1">
-        <v>NaN</v>
+        <v>710500</v>
       </c>
       <c r="E135">
         <v>133</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>158</v>
+        <v>tl</v>
       </c>
       <c r="B136" t="str">
-        <v>Trần Anh Tuấn</v>
+        <v>Trần Lãm</v>
       </c>
       <c r="C136" s="1">
-        <v>369</v>
+        <v>150</v>
       </c>
       <c r="D136" s="1">
-        <v>NaN</v>
+        <v>554100</v>
       </c>
       <c r="E136">
         <v>134</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>48</v>
+        <v>ntk</v>
       </c>
       <c r="B137" t="str">
-        <v>Dương Xuân Tùng</v>
+        <v>Nguyễn Trung Kiên</v>
       </c>
       <c r="C137" s="1">
-        <v>50087</v>
+        <v>145</v>
       </c>
       <c r="D137" s="1">
-        <v>NaN</v>
+        <v>538450</v>
       </c>
       <c r="E137">
         <v>135</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>33</v>
+        <v>tttn</v>
       </c>
       <c r="B138" t="str">
-        <v>Mã Nguyễn Minh Tùng</v>
+        <v>Trần Thị Tố Nga</v>
       </c>
       <c r="C138" s="1">
-        <v>55919</v>
+        <v>56</v>
       </c>
       <c r="D138" s="1">
-        <v>NaN</v>
+        <v>415800</v>
       </c>
       <c r="E138">
         <v>136</v>
@@ -2733,16 +2733,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>103</v>
+        <v>ltt</v>
       </c>
       <c r="B139" t="str">
-        <v>Hoàng Tường</v>
+        <v>Lý Thị Thuý</v>
       </c>
       <c r="C139" s="1">
-        <v>21741</v>
+        <v>88</v>
       </c>
       <c r="D139" s="1">
-        <v>NaN</v>
+        <v>297680</v>
       </c>
       <c r="E139">
         <v>137</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>53</v>
+        <v>pct</v>
       </c>
       <c r="B140" t="str">
-        <v>Nguyễn Thị Kim Uyên</v>
+        <v>Phạm Chí Toàn</v>
       </c>
       <c r="C140" s="1">
-        <v>24180</v>
+        <v>56</v>
       </c>
       <c r="D140" s="1">
-        <v>NaN</v>
+        <v>288470</v>
       </c>
       <c r="E140">
         <v>138</v>
@@ -2767,16 +2767,16 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>nnv</v>
+        <v>vtl</v>
       </c>
       <c r="B141" t="str">
-        <v>Nguyễn Nghiệp Văn</v>
+        <v>Võ Thị Loan</v>
       </c>
       <c r="C141" s="1">
-        <v>1504</v>
+        <v>30</v>
       </c>
       <c r="D141" s="1">
-        <v>NaN</v>
+        <v>286400</v>
       </c>
       <c r="E141">
         <v>139</v>
@@ -2784,16 +2784,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>90</v>
+        <v>bđh</v>
       </c>
       <c r="B142" t="str">
-        <v>Nguyễn Tuyết Vân</v>
+        <v>Bùi Đức Hiền</v>
       </c>
       <c r="C142" s="1">
-        <v>50744</v>
+        <v>120</v>
       </c>
       <c r="D142" s="1">
-        <v>NaN</v>
+        <v>254400</v>
       </c>
       <c r="E142">
         <v>140</v>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="B143" t="str">
-        <v>Trần Thị Hồng Vân</v>
+        <v>Bùi Như Giang</v>
       </c>
       <c r="C143" s="1">
-        <v>25628</v>
+        <v>31</v>
       </c>
       <c r="D143" s="1">
-        <v>NaN</v>
+        <v>174000</v>
       </c>
       <c r="E143">
         <v>141</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>10</v>
+        <v>tttn</v>
       </c>
       <c r="B144" t="str">
-        <v>Bùi Quang Vinh</v>
+        <v>Trần Thị Thanh Nga</v>
       </c>
       <c r="C144" s="1">
-        <v>21328</v>
+        <v>20</v>
       </c>
       <c r="D144" s="1">
-        <v>NaN</v>
+        <v>66700</v>
       </c>
       <c r="E144">
         <v>142</v>
@@ -2835,16 +2835,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>ntv</v>
+        <v>ntlh</v>
       </c>
       <c r="B145" t="str">
-        <v>Nguyễn Trung Vinh</v>
+        <v>Nguyễn Thị Lan Hương</v>
       </c>
       <c r="C145" s="1">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="D145" s="1">
-        <v>NaN</v>
+        <v>38400</v>
       </c>
       <c r="E145">
         <v>143</v>
@@ -2852,106 +2852,21 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>35</v>
-      </c>
-      <c r="B146" t="str">
-        <v>Lư Hoàng Vũ</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="C146" s="1">
-        <v>74003</v>
+        <v>6513152</v>
       </c>
       <c r="D146" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E146">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>ntv</v>
-      </c>
-      <c r="B147" t="str">
-        <v>Nguyễn Triệu Vũ</v>
-      </c>
-      <c r="C147" s="1">
-        <v>252</v>
-      </c>
-      <c r="D147" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E147">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>72</v>
-      </c>
-      <c r="B148" t="str">
-        <v>Nguyễn Tuấn Vũ</v>
-      </c>
-      <c r="C148" s="1">
-        <v>273186</v>
-      </c>
-      <c r="D148" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E148">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>dqv</v>
-      </c>
-      <c r="B149" t="str">
-        <v>Dương Quang Vũ</v>
-      </c>
-      <c r="C149" s="1">
-        <v>92</v>
-      </c>
-      <c r="D149" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E149">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>94</v>
-      </c>
-      <c r="B150" t="str">
-        <v>Đoàn Thị Thanh Vy</v>
-      </c>
-      <c r="C150" s="1">
-        <v>1840</v>
-      </c>
-      <c r="D150" s="1">
-        <v>NaN</v>
-      </c>
-      <c r="E150">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="C151" s="1">
-        <v>7720821</v>
-      </c>
-      <c r="D151" s="1">
-        <v>NaN</v>
+        <v>50588619973</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A146:B146"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F146"/>
   </ignoredErrors>
 </worksheet>
 </file>